--- a/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30720" windowHeight="13644" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21000" windowHeight="11655" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -624,14 +624,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -981,7 +978,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1226,19 +1223,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5"/>
   <cols>
     <col width="25.6666666666667" customWidth="1" style="1" min="1" max="1"/>
-    <col width="87.2222222222222" customWidth="1" style="1" min="2" max="2"/>
+    <col width="87.22499999999999" customWidth="1" style="1" min="2" max="2"/>
     <col width="25.6666666666667" customWidth="1" style="1" min="3" max="3"/>
-    <col width="35.1111111111111" customWidth="1" style="1" min="4" max="4"/>
-    <col width="36.8888888888889" customWidth="1" style="1" min="6" max="6"/>
+    <col width="35.1083333333333" customWidth="1" style="1" min="4" max="4"/>
+    <col width="36.8916666666667" customWidth="1" style="1" min="6" max="6"/>
     <col width="23.3333333333333" customWidth="1" style="1" min="7" max="7"/>
     <col width="27.3333333333333" customWidth="1" style="1" min="8" max="8"/>
   </cols>
@@ -2012,7 +2009,7 @@
           <t>2025-01-17 21:41</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/group3/M00/03/E5/rBUtImAvDaSAF2eRAADTW6vbCDo61.docx</t>
         </is>
@@ -2066,7 +2063,7 @@
           <t>2025-01-17 21:55</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/group3/M00/03/E5/rBUtImAvDhqATjVHAADTW6vbCDo75.docx</t>
         </is>
@@ -5371,39 +5368,5793 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="0" t="inlineStr">
         <is>
           <t>2025-01-18 17:40</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="0" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/group3/M00/02/BC/rBUtIl9tTb-AeR-qAAFAADmdjtk790.xls</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=cf8b7e819caa4a43874c0d871f17fd07&amp;type=0</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D107" s="0" t="inlineStr">
         <is>
           <t>专项扶资金</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E107" s="0" t="inlineStr">
         <is>
           <t>专项扶贫资金</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F107" s="0" t="inlineStr">
         <is>
           <t>2019年享受省总项目专项资金帮扶医疗救助（省级困难职工）人员名单.xls</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="G107" s="0" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/ywdt/gsgg/12650461.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:46</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/5C/rBUtImSxOCOAVRWFAAFDJ0EhxsM96.docx</t>
+        </is>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1f251c409d4341b9bf19901f814ed807&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>大部份</t>
+        </is>
+      </c>
+      <c r="E108" s="0" t="inlineStr">
+        <is>
+          <t>大部分</t>
+        </is>
+      </c>
+      <c r="F108" s="0" t="inlineStr">
+        <is>
+          <t>平昌县镇龙镇2019年度部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G108" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13228161.html</t>
+        </is>
+      </c>
+      <c r="H108" s="0" t="inlineStr">
+        <is>
+          <t>平昌县镇龙镇2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:54</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/EC/rBUtImA3_B6AQDqNAAB4AE6oPyQ929.xls</t>
+        </is>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f000b494e38547de8e1efdc74473854b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路条例》</t>
+        </is>
+      </c>
+      <c r="E109" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路管理条例》</t>
+        </is>
+      </c>
+      <c r="F109" s="0" t="inlineStr">
+        <is>
+          <t>四川省涉企行政事业性收费目录清单(2019年).xls</t>
+        </is>
+      </c>
+      <c r="G109" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/12835991.html</t>
+        </is>
+      </c>
+      <c r="H109" s="0" t="inlineStr">
+        <is>
+          <t>四川省政府性基金和行政事业性收费目录清单</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:54</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911261926252212_XlTUxmFl.doc?fileName=巴中市平昌县界牌乡政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=999a3f1bb8144024970b5c1a11f7215d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E110" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F110" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县界牌乡政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G110" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12617871.html</t>
+        </is>
+      </c>
+      <c r="H110" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县界牌乡政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:54</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/09/1A/rBUtImLONM2AI9MKAAFux15HbNU618.doc</t>
+        </is>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=618b4f13a3594a778535a6c8ad3380e8&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>县委政府</t>
+        </is>
+      </c>
+      <c r="E111" s="0" t="inlineStr">
+        <is>
+          <t>县委县政府</t>
+        </is>
+      </c>
+      <c r="F111" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县统战部2018年部门决算公开编制说明.doc</t>
+        </is>
+      </c>
+      <c r="G111" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/11340341.html</t>
+        </is>
+      </c>
+      <c r="H111" s="0" t="inlineStr">
+        <is>
+          <t>平昌县统战部2018年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:57</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/EC/rBUtImA3_NKAYHyWAADMANUbUU0393.xls</t>
+        </is>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5e8cace50d294adda2d0320bcddc0a72&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路条例》</t>
+        </is>
+      </c>
+      <c r="E112" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路管理条例》</t>
+        </is>
+      </c>
+      <c r="F112" s="0" t="inlineStr">
+        <is>
+          <t>四川省行政事业性收费目录清单（2019年）.xls</t>
+        </is>
+      </c>
+      <c r="G112" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/jsjf/10484811.html</t>
+        </is>
+      </c>
+      <c r="H112" s="0" t="inlineStr">
+        <is>
+          <t>四川省政府性基金和行政事业性收费目录清单</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:57</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/EC/rBUtImA3_OqAVmIJAADMANUbUU0524.xls</t>
+        </is>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a17cfc443d4d4b9a9c720790eb0a671b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>《特种设备安全监督条例》</t>
+        </is>
+      </c>
+      <c r="E113" s="0" t="inlineStr">
+        <is>
+          <t>《特种设备安全监察条例》</t>
+        </is>
+      </c>
+      <c r="F113" s="0" t="inlineStr">
+        <is>
+          <t>四川省行政事业性收费目录清单（2019年）.xls</t>
+        </is>
+      </c>
+      <c r="G113" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/12831581.html</t>
+        </is>
+      </c>
+      <c r="H113" s="0" t="inlineStr">
+        <is>
+          <t>四川省政府性基金和行政事业性收费目录清单</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:57</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201803/201803271704145255_BkGnKuqW.xls?fileName=县总工会2018年部门预算公开表.XLS</t>
+        </is>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=38adb124c7c64a209e97a300e39869c2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E114" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F114" s="0" t="inlineStr">
+        <is>
+          <t>附件：县总工会2018年部门预算公开表.XLS</t>
+        </is>
+      </c>
+      <c r="G114" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336271.html</t>
+        </is>
+      </c>
+      <c r="H114" s="0" t="inlineStr">
+        <is>
+          <t>平昌县总工会2018部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:57</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201804/201804161612346035_OtYyK104.xls?fileName=2018年档案局预算公开表.XLS</t>
+        </is>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0ed42be0c77645dc84dce5584fce40db&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E115" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F115" s="0" t="inlineStr">
+        <is>
+          <t>附件：2018年档案局预算公开表.XLS</t>
+        </is>
+      </c>
+      <c r="G115" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336331.html</t>
+        </is>
+      </c>
+      <c r="H115" s="0" t="inlineStr">
+        <is>
+          <t>平昌档案局2018年部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:58</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201803/201803201106394957_tNipl055.xls?fileName=巡察办2018年预算公开表.XLS</t>
+        </is>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=83c39e7d942d4b1e8de8557e2893f6d2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E116" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F116" s="0" t="inlineStr">
+        <is>
+          <t>附件：巡察办2018年预算公开表.XLS</t>
+        </is>
+      </c>
+      <c r="G116" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336471.html</t>
+        </is>
+      </c>
+      <c r="H116" s="0" t="inlineStr">
+        <is>
+          <t>平昌巡察办2018部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:58</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201803/201803121036404598_gK2fAoRo.xls?fileName=平昌县食品药品监督管理局2018年预算公开表（含二级局）.xls</t>
+        </is>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=16309cd15cb3470d8be45149964ded0b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E117" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F117" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县食品药品监督管理局2018年预算公开表（含二级局）.xls</t>
+        </is>
+      </c>
+      <c r="G117" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336241.html</t>
+        </is>
+      </c>
+      <c r="H117" s="0" t="inlineStr">
+        <is>
+          <t>平昌县食品药品监督管理局2018年预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:58</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/5A/rBUtImSwpCKAbGSTAAH81VWuPLs53.docx</t>
+        </is>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=86c98501bbca4ce881fe5fc39d9ebea1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>拔付</t>
+        </is>
+      </c>
+      <c r="E118" s="0" t="inlineStr">
+        <is>
+          <t>拨付</t>
+        </is>
+      </c>
+      <c r="F118" s="0" t="inlineStr">
+        <is>
+          <t>平昌县土垭镇2019年度部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G118" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13228291.html</t>
+        </is>
+      </c>
+      <c r="H118" s="0" t="inlineStr">
+        <is>
+          <t>平昌县土垭镇2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:58</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/EC/rBUtImA4Ao2ALVxUAAB4AJ6nECU434.xls</t>
+        </is>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=15877ef5c22348e6a94f1df2f2dc745c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路条例》</t>
+        </is>
+      </c>
+      <c r="E119" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路管理条例》</t>
+        </is>
+      </c>
+      <c r="F119" s="0" t="inlineStr">
+        <is>
+          <t>四川省涉企行政事业性收费目录清单(2019年).xls</t>
+        </is>
+      </c>
+      <c r="G119" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/12825811.html</t>
+        </is>
+      </c>
+      <c r="H119" s="0" t="inlineStr">
+        <is>
+          <t>四川省财政厅四川省发展和改革委员会关于公布四川省行政事业性收费等目录清单的通知(川财税〔2019〕13号)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:58</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0D/5C/rBUtImRwGiCARQxAAAD10oHio9073.xlsx</t>
+        </is>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=4b6d4d577bfe48c4807e13bc57ba847e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>县委、政府</t>
+        </is>
+      </c>
+      <c r="E120" s="0" t="inlineStr">
+        <is>
+          <t>县委、县政府</t>
+        </is>
+      </c>
+      <c r="F120" s="0" t="inlineStr">
+        <is>
+          <t>2023年中国共产党平昌县委员会党校部门预算公开.xlsx</t>
+        </is>
+      </c>
+      <c r="G120" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13859074.html</t>
+        </is>
+      </c>
+      <c r="H120" s="0" t="inlineStr">
+        <is>
+          <t>中国共产党平昌县委员会党校2023年部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:58</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/13/rBUtImIxrO-AOCxzAAHjSW9O31Y44.docx</t>
+        </is>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c95b18383195407a8b58c6f168c83f15&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E121" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F121" s="0" t="inlineStr">
+        <is>
+          <t>平昌县佛楼镇2019年度部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G121" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/12902381.html</t>
+        </is>
+      </c>
+      <c r="H121" s="0" t="inlineStr">
+        <is>
+          <t>平昌县佛楼镇2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:58</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/EB/rBUtImA36lyAamaiAAFrSiXPKOE509.doc</t>
+        </is>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=91d1d02c34d841679b4dce08115bb141&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>“八项规定”</t>
+        </is>
+      </c>
+      <c r="E122" s="0" t="inlineStr">
+        <is>
+          <t>中央八项规定</t>
+        </is>
+      </c>
+      <c r="F122" s="0" t="inlineStr">
+        <is>
+          <t>平昌县政协办2018年度部门决算公开</t>
+        </is>
+      </c>
+      <c r="G122" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/11340541.html</t>
+        </is>
+      </c>
+      <c r="H122" s="0" t="inlineStr">
+        <is>
+          <t>平昌县政协办2018年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:58</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201907/20190726103154131_LAyAuOgF.xls?fileName=平昌县应急管理局2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=52b87b3030b040058703558b479a4066&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E123" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F123" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县应急管理局2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G123" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336921.html</t>
+        </is>
+      </c>
+      <c r="H123" s="0" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:58</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/UploadFiles/1/2017/6/20170619174252935293.docx</t>
+        </is>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=af4640cfc0e14f0f97bc8c54346e8161&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>帐号</t>
+        </is>
+      </c>
+      <c r="E124" s="0" t="inlineStr">
+        <is>
+          <t>账号</t>
+        </is>
+      </c>
+      <c r="F124" s="0" t="inlineStr">
+        <is>
+          <t>附件：邀请函</t>
+        </is>
+      </c>
+      <c r="G124" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/zyjy/11332971.html</t>
+        </is>
+      </c>
+      <c r="H124" s="0" t="inlineStr">
+        <is>
+          <t>平昌县笔山小学2017年校舍维修改造及笔山镇 楼石村、笔峰村2017年精准扶贫项目施工招标公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:58</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911261933442216_dglVZwcB.doc?fileName=巴中市平昌县南风乡政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ceaff876eb8d4c81a4fd9372d8a69e4b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E125" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F125" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县南风乡政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G125" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12618031.html</t>
+        </is>
+      </c>
+      <c r="H125" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县南风乡政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:58</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/02/BC/rBUtIl9tTb-AaiA_AADQAP_NSu0164.xls</t>
+        </is>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a1457dc64ac4417eb0f08dba3fdfb3e1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>专项扶资金</t>
+        </is>
+      </c>
+      <c r="E126" s="0" t="inlineStr">
+        <is>
+          <t>专项扶贫资金</t>
+        </is>
+      </c>
+      <c r="F126" s="0" t="inlineStr">
+        <is>
+          <t>2019年享受省总项目专项资金帮扶助学救助（省级困难职工档案）人员名单.xls</t>
+        </is>
+      </c>
+      <c r="G126" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/gsgg/12650461.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:58</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201810/20181015153258590_43FV8UKF.docx?fileName=出让须知3号.docx</t>
+        </is>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2eaea35f794b476b81ea19747e8121d2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>帐号</t>
+        </is>
+      </c>
+      <c r="E127" s="0" t="inlineStr">
+        <is>
+          <t>账号</t>
+        </is>
+      </c>
+      <c r="F127" s="0" t="inlineStr">
+        <is>
+          <t>附件：出让须知3号.docx</t>
+        </is>
+      </c>
+      <c r="G127" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/zyjy/11333941.html</t>
+        </is>
+      </c>
+      <c r="H127" s="0" t="inlineStr">
+        <is>
+          <t>平公共矿挂【2018】3号采矿权挂牌出让公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:58</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/EC/rBUtImA3_PWAOP80AADMANUbUU0803.xls</t>
+        </is>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9b141fca2b224803925a5ac93740bbd0&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>《特种设备安全监督条例》</t>
+        </is>
+      </c>
+      <c r="E128" s="0" t="inlineStr">
+        <is>
+          <t>《特种设备安全监察条例》</t>
+        </is>
+      </c>
+      <c r="F128" s="0" t="inlineStr">
+        <is>
+          <t>四川省行政事业性收费目录清单（2019年）.xls</t>
+        </is>
+      </c>
+      <c r="G128" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/jghsf/11345641.html</t>
+        </is>
+      </c>
+      <c r="H128" s="0" t="inlineStr">
+        <is>
+          <t>四川省政府性基金和行政事业性收费目录清单</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:58</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/EC/rBUtImA3_CqAPK30AAB4AE6oPyQ035.xls</t>
+        </is>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=96e8be718be746cba19360118243e615&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路条例》</t>
+        </is>
+      </c>
+      <c r="E129" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路管理条例》</t>
+        </is>
+      </c>
+      <c r="F129" s="0" t="inlineStr">
+        <is>
+          <t>四川省涉企行政事业性收费目录清单(2019年).xls</t>
+        </is>
+      </c>
+      <c r="G129" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/12831581.html</t>
+        </is>
+      </c>
+      <c r="H129" s="0" t="inlineStr">
+        <is>
+          <t>四川省政府性基金和行政事业性收费目录清单</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:58</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/05/14/rBUtImDjTLaAS3wCAAB-AO-9ayw592.xls</t>
+        </is>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1ef0a408939b49cf93fdc77df16070ee&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路条例》</t>
+        </is>
+      </c>
+      <c r="E130" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路管理条例》</t>
+        </is>
+      </c>
+      <c r="F130" s="0" t="inlineStr">
+        <is>
+          <t>四川省涉企行政事业性收费目录清单(2021).xls</t>
+        </is>
+      </c>
+      <c r="G130" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601981/13272821.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/FD/rBUtImLCPEGAaClMAAIOAOZYjA4731.xls</t>
+        </is>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0c5f23b3ec4547bcb7840fc10cc90b0d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>县委政府</t>
+        </is>
+      </c>
+      <c r="E131" s="0" t="inlineStr">
+        <is>
+          <t>县委县政府</t>
+        </is>
+      </c>
+      <c r="F131" s="0" t="inlineStr">
+        <is>
+          <t>平昌县政协办公室2020年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G131" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/12756391.html</t>
+        </is>
+      </c>
+      <c r="H131" s="0" t="inlineStr">
+        <is>
+          <t>平昌县政协办公室2020年部门预算编制说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/59/rBUtImSv2AyAftjhAAFRLrBl6mg11.docx</t>
+        </is>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2f20356de0ff49c7b52c8aec55ab71f6&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>中央“八项规定”</t>
+        </is>
+      </c>
+      <c r="E132" s="0" t="inlineStr">
+        <is>
+          <t>中央八项规定</t>
+        </is>
+      </c>
+      <c r="F132" s="0" t="inlineStr">
+        <is>
+          <t>平昌县泥龙镇2019年度部门决算公开</t>
+        </is>
+      </c>
+      <c r="G132" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13228641.html</t>
+        </is>
+      </c>
+      <c r="H132" s="0" t="inlineStr">
+        <is>
+          <t>平昌县泥龙镇2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201804/201804101855165797_9YKk794h.xls?fileName=2018年部门预算公开表（水务局）.xls</t>
+        </is>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b4f3b91a921741468e4ca5f7a1800891&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E133" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F133" s="0" t="inlineStr">
+        <is>
+          <t>附件：2018年部门预算公开表（水务局）.xls</t>
+        </is>
+      </c>
+      <c r="G133" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336121.html</t>
+        </is>
+      </c>
+      <c r="H133" s="0" t="inlineStr">
+        <is>
+          <t>平昌县水务局2018部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201907/20190726114542176_eXjVQvGW.xls?fileName=平昌县信访局2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=187aaf5168d54d8d958ffbe49eb85929&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E134" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F134" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县信访局2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G134" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/12824171.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201803/201803191851574914_Uqq1lutD.xls?fileName=2018年部门预算公开表（司法局）.xls</t>
+        </is>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fab1e3fda88c4dd1ba8417bcb575113b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E135" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F135" s="0" t="inlineStr">
+        <is>
+          <t>附件：2018年部门预算公开表（司法局）.xls</t>
+        </is>
+      </c>
+      <c r="G135" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336141.html</t>
+        </is>
+      </c>
+      <c r="H135" s="0" t="inlineStr">
+        <is>
+          <t>平昌司法局2018部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/02/F6/rBUtIl-ht6aACYAjAADJ5YpZJFk74.docx</t>
+        </is>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d3ab26ab5434414191bcc39968f1be35&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D136" s="0" t="inlineStr">
+        <is>
+          <t>截止目前</t>
+        </is>
+      </c>
+      <c r="E136" s="0" t="inlineStr">
+        <is>
+          <t>截至目前</t>
+        </is>
+      </c>
+      <c r="F136" s="0" t="inlineStr">
+        <is>
+          <t>平昌县供销社2019年度部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G136" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13229131.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/04/9A/rBUtImCjiLiAFlpLAAMSACXbjtE674.xls</t>
+        </is>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f4917f9abb384971b8da63ade145e7bf&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E137" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F137" s="0" t="inlineStr">
+        <is>
+          <t>平昌县龙岗镇2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G137" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603241/13329821.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911261940342220_OxOBlwPz.doc?fileName=巴中市平昌县坦溪镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2c6ecceef45c4c52be1460c4693d8678&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D138" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E138" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F138" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县坦溪镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G138" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12617951.html</t>
+        </is>
+      </c>
+      <c r="H138" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县坦溪镇政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201803/201803131054424641_WPSBOQza.xls?fileName=平昌县检察院2018年预算公开表.XLS</t>
+        </is>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d8238c4a5f33490783a71476294b938c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D139" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E139" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F139" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县检察院2018年预算公开表.XLS</t>
+        </is>
+      </c>
+      <c r="G139" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336561.html</t>
+        </is>
+      </c>
+      <c r="H139" s="0" t="inlineStr">
+        <is>
+          <t>平昌县检察院2018年部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911261942282221_E7F23at3.doc?fileName=巴中市平昌县同州街道办事处政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b740e08174ef4fd59f0f91ac51ab79f3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D140" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E140" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F140" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县同州街道办事处政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G140" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12617961.html</t>
+        </is>
+      </c>
+      <c r="H140" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县同州街道办事处政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/05/14/rBUtImDjTLaAXsibAAEMAP3lhlI410.xls</t>
+        </is>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1c55b226286347a091f2fabb75214300&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D141" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路条例》</t>
+        </is>
+      </c>
+      <c r="E141" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路管理条例》</t>
+        </is>
+      </c>
+      <c r="F141" s="0" t="inlineStr">
+        <is>
+          <t>四川省行政事业性收费目录清单(2021).xls</t>
+        </is>
+      </c>
+      <c r="G141" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601981/13272821.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201904/201904300946532228_Ga836xEx.xls?fileName=平昌县星光工业园管理委员会2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8afa2073a4c24ec79420249a71689c1b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E142" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F142" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县星光工业园管理委员会2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G142" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336691.html</t>
+        </is>
+      </c>
+      <c r="H142" s="0" t="inlineStr">
+        <is>
+          <t>平昌县星光工业园管理委员会</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201803/201803191749204911_a78JJux0.xls?fileName=2018年部门预算公开表（人大办）.xls</t>
+        </is>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8f132bb3418b4be3bf8d3f09dae034b0&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E143" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F143" s="0" t="inlineStr">
+        <is>
+          <t>附件：2018年部门预算公开表（人大办）.xls</t>
+        </is>
+      </c>
+      <c r="G143" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336201.html</t>
+        </is>
+      </c>
+      <c r="H143" s="0" t="inlineStr">
+        <is>
+          <t>平昌人大办2018部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/00/E6/rBUtIl8L1PqAbiv2AAIKAJAlZ3U383.xls</t>
+        </is>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6290e6c033344261a96c896a115b9edd&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E144" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F144" s="0" t="inlineStr">
+        <is>
+          <t>2020年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G144" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/12740911.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B145" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201803/201803161440244807_9VcI0S3o.xls?fileName=2018年部门预算公开表（统战部）.xls</t>
+        </is>
+      </c>
+      <c r="C145" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8ea644f5b6d44ec392a9970f7bf35a03&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D145" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E145" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F145" s="0" t="inlineStr">
+        <is>
+          <t>附件：2018年部门预算公开表（统战部）.xls</t>
+        </is>
+      </c>
+      <c r="G145" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336521.html</t>
+        </is>
+      </c>
+      <c r="H145" s="0" t="inlineStr">
+        <is>
+          <t>平昌统战部2018部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B146" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911011538161565_Ju2XIWSk.docx?fileName=平昌县审计局2018年部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="C146" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f023f0cfcd05456fa5ae2d50b081820c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D146" s="0" t="inlineStr">
+        <is>
+          <t>例行节约</t>
+        </is>
+      </c>
+      <c r="E146" s="0" t="inlineStr">
+        <is>
+          <t>厉行节约</t>
+        </is>
+      </c>
+      <c r="F146" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县审计局2018年部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G146" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/12823811.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B147" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/47/rBUtImSflh2Ae3GjAAavQEdYxH028.xlsx</t>
+        </is>
+      </c>
+      <c r="C147" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5294b6958b8643fe86ab90b3c5fb82c8&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D147" s="0" t="inlineStr">
+        <is>
+          <t>《招投标法实施条例》</t>
+        </is>
+      </c>
+      <c r="E147" s="0" t="inlineStr">
+        <is>
+          <t>《中华人民共和国招标投标法实施条例》</t>
+        </is>
+      </c>
+      <c r="F147" s="0" t="inlineStr">
+        <is>
+          <t>平昌县县级部门行政权力清单（2019年本）.xlsx</t>
+        </is>
+      </c>
+      <c r="G147" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/12866061.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B148" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/5A/rBUtImSwp2mAJLSjAAFv_miWb0Y259.doc</t>
+        </is>
+      </c>
+      <c r="C148" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2ca62a9d8dd5444da106dccc35484c6c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D148" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E148" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F148" s="0" t="inlineStr">
+        <is>
+          <t>2018年度平昌县政协办部门决算编制说明.doc</t>
+        </is>
+      </c>
+      <c r="G148" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/12823431.html</t>
+        </is>
+      </c>
+      <c r="H148" s="0" t="inlineStr">
+        <is>
+          <t>平昌县政协办2018年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:59</t>
+        </is>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911212109572104_Lp7nxJQT.docx?fileName=巴中市平昌县人力资源和社会保障局政府信息主动公开基本目录.docx</t>
+        </is>
+      </c>
+      <c r="C149" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=17f4d23fe2684293be5418069bb5ddd0&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D149" s="0" t="inlineStr">
+        <is>
+          <t>《中华人民共和国社保法》</t>
+        </is>
+      </c>
+      <c r="E149" s="0" t="inlineStr">
+        <is>
+          <t>《中华人民共和国社会保险法》</t>
+        </is>
+      </c>
+      <c r="F149" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县人力资源和社会保障局政府信息主动公开基本目录.docx</t>
+        </is>
+      </c>
+      <c r="G149" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xjbm/12633721.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:00</t>
+        </is>
+      </c>
+      <c r="B150" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911261924342211_vfDDOWJC.doc?fileName=巴中市平昌县江口镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C150" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=91a03a89539644b49a82d1425f2d9923&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D150" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E150" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F150" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县江口镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G150" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12617861.html</t>
+        </is>
+      </c>
+      <c r="H150" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县江口镇政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:00</t>
+        </is>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/EC/rBUtImA3_AWAfRTQAAB4AE6oPyQ013.xls</t>
+        </is>
+      </c>
+      <c r="C151" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=efeb10ea014a459c96884ed213ffdaf3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D151" s="0" t="inlineStr">
+        <is>
+          <t>《特种设备安全监督条例》</t>
+        </is>
+      </c>
+      <c r="E151" s="0" t="inlineStr">
+        <is>
+          <t>《特种设备安全监察条例》</t>
+        </is>
+      </c>
+      <c r="F151" s="0" t="inlineStr">
+        <is>
+          <t>四川省涉企行政事业性收费目录清单(2019年).xls</t>
+        </is>
+      </c>
+      <c r="G151" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/jsjf/10484811.html</t>
+        </is>
+      </c>
+      <c r="H151" s="0" t="inlineStr">
+        <is>
+          <t>四川省政府性基金和行政事业性收费目录清单</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:00</t>
+        </is>
+      </c>
+      <c r="B152" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/EC/rBUtImA3_BKAEvxcAAB4AE6oPyQ908.xls</t>
+        </is>
+      </c>
+      <c r="C152" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e9fb266a4fdc4a03a07662ce435773fb&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D152" s="0" t="inlineStr">
+        <is>
+          <t>《特种设备安全监督条例》</t>
+        </is>
+      </c>
+      <c r="E152" s="0" t="inlineStr">
+        <is>
+          <t>《特种设备安全监察条例》</t>
+        </is>
+      </c>
+      <c r="F152" s="0" t="inlineStr">
+        <is>
+          <t>四川省涉企行政事业性收费目录清单(2019年).xls</t>
+        </is>
+      </c>
+      <c r="G152" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/jghsf/11345641.html</t>
+        </is>
+      </c>
+      <c r="H152" s="0" t="inlineStr">
+        <is>
+          <t>四川省政府性基金和行政事业性收费目录清单</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:00</t>
+        </is>
+      </c>
+      <c r="B153" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/12/rBUtImIxnHuAJZ12AAG1Tw_oQhQ70.docx</t>
+        </is>
+      </c>
+      <c r="C153" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f68a7c0d574e4467b4e1c1899357817e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D153" s="0" t="inlineStr">
+        <is>
+          <t>“五个一”工程奖</t>
+        </is>
+      </c>
+      <c r="E153" s="0" t="inlineStr">
+        <is>
+          <t>“五个一工程”奖</t>
+        </is>
+      </c>
+      <c r="F153" s="0" t="inlineStr">
+        <is>
+          <t>平昌县文广旅局2019年度部门决算公开编制说明.docx.docx</t>
+        </is>
+      </c>
+      <c r="G153" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/12902241.html</t>
+        </is>
+      </c>
+      <c r="H153" s="0" t="inlineStr">
+        <is>
+          <t>平昌县文广旅局2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:00</t>
+        </is>
+      </c>
+      <c r="B154" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/UploadFiles/1/2017/6/20170626092798189818.docx</t>
+        </is>
+      </c>
+      <c r="C154" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=62ad00910a7545389e86845ae034a0e1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D154" s="0" t="inlineStr">
+        <is>
+          <t>帐号</t>
+        </is>
+      </c>
+      <c r="E154" s="0" t="inlineStr">
+        <is>
+          <t>账号</t>
+        </is>
+      </c>
+      <c r="F154" s="0" t="inlineStr">
+        <is>
+          <t>附件：邀请函</t>
+        </is>
+      </c>
+      <c r="G154" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/zyjy/11333041.html</t>
+        </is>
+      </c>
+      <c r="H154" s="0" t="inlineStr">
+        <is>
+          <t>平昌县笔山小学2017年校舍维修改造及笔山镇楼石村、笔峰村2017年精准扶贫项目施工招标公告(第二次)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:01</t>
+        </is>
+      </c>
+      <c r="B155" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/EC/rBUtImA4Lc6AGS98AACf19eFhoE02.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:02</t>
+        </is>
+      </c>
+      <c r="B156" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/UploadFiles/1/2015/5/20150518105195389538.xls</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B157" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/00/E6/rBUtIl8L1QWAT3NnAAJWAGPSdfE877.xls</t>
+        </is>
+      </c>
+      <c r="C157" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c15149c3a1f244b0b66c21587cf9bb24&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D157" s="0" t="inlineStr">
+        <is>
+          <t>市委、政府</t>
+        </is>
+      </c>
+      <c r="E157" s="0" t="inlineStr">
+        <is>
+          <t>市委、市政府</t>
+        </is>
+      </c>
+      <c r="F157" s="0" t="inlineStr">
+        <is>
+          <t>市级部门预算项目支出绩效目标表.xls</t>
+        </is>
+      </c>
+      <c r="G157" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/12740911.html</t>
+        </is>
+      </c>
+      <c r="H157" s="0" t="inlineStr">
+        <is>
+          <t>巴中市生态环境局2020年部门预算公开说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B158" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/3F/rBUtImSa3nuAPV4uAAOBEJTf0gA650.doc</t>
+        </is>
+      </c>
+      <c r="C158" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=94d98398d87f4c03afe0e632230fd2ba&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D158" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E158" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F158" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县涵水镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G158" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12618151.html</t>
+        </is>
+      </c>
+      <c r="H158" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县涵水镇政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B159" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/47/rBUtImSflNmATnkGAALGLNdbXUw200.doc</t>
+        </is>
+      </c>
+      <c r="C159" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=997af94616af49c88f1248ebf17b7baa&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D159" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E159" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F159" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县岳家镇政府信息主动公开基本目录.doc.doc</t>
+        </is>
+      </c>
+      <c r="G159" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12618021.html</t>
+        </is>
+      </c>
+      <c r="H159" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县岳家镇政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B160" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/3F/rBUtImSa3zOAMIDlAAEyn7yc3PY69.xlsx</t>
+        </is>
+      </c>
+      <c r="C160" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a4f4a2b9f0c74514a138baaa72ef3b86&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D160" s="0" t="inlineStr">
+        <is>
+          <t>社会统一信用代码</t>
+        </is>
+      </c>
+      <c r="E160" s="0" t="inlineStr">
+        <is>
+          <t>统一社会信用代码</t>
+        </is>
+      </c>
+      <c r="F160" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县行政许可“四办”目录清单（2018）.xlsx</t>
+        </is>
+      </c>
+      <c r="G160" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zcwj/10471021.html</t>
+        </is>
+      </c>
+      <c r="H160" s="0" t="inlineStr">
+        <is>
+          <t>平昌县人民政府关于公布县级行政许可“最多跑一次”“四办”事项目录清单的通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B161" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0D/BE/rBUtImR3BLyACumlAAKCAOVTifg674.xls</t>
+        </is>
+      </c>
+      <c r="C161" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=16a24c22b41a4e4f974acdb1be5f9def&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D161" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E161" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F161" s="0" t="inlineStr">
+        <is>
+          <t>澌岸镇2019年预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G161" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603361/13862707.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B162" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/00/4F/rBUtIl6lMmSAE-DrAADYANza7YI836.xls</t>
+        </is>
+      </c>
+      <c r="C162" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fa08e8c584cf45b6bdfba9e240b6fef8&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D162" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路条例》</t>
+        </is>
+      </c>
+      <c r="E162" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路管理条例》</t>
+        </is>
+      </c>
+      <c r="F162" s="0" t="inlineStr">
+        <is>
+          <t>附件3.四川省涉企行政事业性收费目录清单(2020年3月).xls</t>
+        </is>
+      </c>
+      <c r="G162" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601981/12635401.html</t>
+        </is>
+      </c>
+      <c r="H162" s="0" t="inlineStr">
+        <is>
+          <t>四川省涉企行政事业性收费目录清单(2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B163" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/EC/rBUtImA4LtGATGmDAAFrToZFG40939.doc</t>
+        </is>
+      </c>
+      <c r="C163" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9f975af1466d4ee783e600cebf126455&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D163" s="0" t="inlineStr">
+        <is>
+          <t>中央“八项规定”</t>
+        </is>
+      </c>
+      <c r="E163" s="0" t="inlineStr">
+        <is>
+          <t>中央八项规定</t>
+        </is>
+      </c>
+      <c r="F163" s="0" t="inlineStr">
+        <is>
+          <t>2018年度平昌县政协办部门决算编制说明.doc</t>
+        </is>
+      </c>
+      <c r="G163" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/11340541.html</t>
+        </is>
+      </c>
+      <c r="H163" s="0" t="inlineStr">
+        <is>
+          <t>平昌县政协办2018年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B164" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/34/rBUtImJTyUaAPbImAADOAMW_WDA130.xls</t>
+        </is>
+      </c>
+      <c r="C164" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=193897b7288c46e9842e436ac5232e24&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D164" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E164" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F164" s="0" t="inlineStr">
+        <is>
+          <t>平昌县龙岗镇人民政府2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G164" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603241/13329821.html</t>
+        </is>
+      </c>
+      <c r="H164" s="0" t="inlineStr">
+        <is>
+          <t>平昌县龙岗镇人民政府2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B165" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/73/rBUtImTXjtuAHP0PAAFcAEsFXgg792.xls</t>
+        </is>
+      </c>
+      <c r="C165" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=24089f371cfe4669a394c0d4667fda44&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D165" s="0" t="inlineStr">
+        <is>
+          <t>活性碳</t>
+        </is>
+      </c>
+      <c r="E165" s="0" t="inlineStr">
+        <is>
+          <t>活性炭</t>
+        </is>
+      </c>
+      <c r="F165" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县综合行政执法局2019年部门预算绩效公开表.xls</t>
+        </is>
+      </c>
+      <c r="G165" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336721.html</t>
+        </is>
+      </c>
+      <c r="H165" s="0" t="inlineStr">
+        <is>
+          <t>平昌县综合行政执法局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B166" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201803/201803271755375261_53F8yfu4.xls?fileName=江口三小2018年预算公开表.XLS</t>
+        </is>
+      </c>
+      <c r="C166" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=71475c50210d48389f48e5607b516ea6&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D166" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E166" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F166" s="0" t="inlineStr">
+        <is>
+          <t>附件：江口三小2018年预算公开表.XLS</t>
+        </is>
+      </c>
+      <c r="G166" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336191.html</t>
+        </is>
+      </c>
+      <c r="H166" s="0" t="inlineStr">
+        <is>
+          <t>平昌县江口第三小学2018年部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B167" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201804/201804131504525936_JfGPDzmS.xls?fileName=工商联2018年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="C167" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a1a5ba97d6a44e308c6d138723f41157&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D167" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E167" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F167" s="0" t="inlineStr">
+        <is>
+          <t>附件：工商联2018年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G167" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336061.html</t>
+        </is>
+      </c>
+      <c r="H167" s="0" t="inlineStr">
+        <is>
+          <t>平昌县工商业联合会2018年度部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B168" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911011657581678_1DiP5uuf.docx?fileName=平昌县档案局2018年部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="C168" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=83e1f2ecf72148ccb21c9aa58d53a213&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D168" s="0" t="inlineStr">
+        <is>
+          <t>截止目前</t>
+        </is>
+      </c>
+      <c r="E168" s="0" t="inlineStr">
+        <is>
+          <t>截至目前</t>
+        </is>
+      </c>
+      <c r="F168" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县档案局2018年部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G168" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/11340461.html</t>
+        </is>
+      </c>
+      <c r="H168" s="0" t="inlineStr">
+        <is>
+          <t>平昌县档案局2018年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B169" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/34/rBUtImJTzYeAF5gPAACcAGaNhcI398.xls</t>
+        </is>
+      </c>
+      <c r="C169" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=807a739dc78346e39cc7f0ea595bd4e0&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D169" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E169" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F169" s="0" t="inlineStr">
+        <is>
+          <t>平昌县鹿鸣镇人民政府2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G169" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13195301.html</t>
+        </is>
+      </c>
+      <c r="H169" s="0" t="inlineStr">
+        <is>
+          <t>平昌县鹿鸣镇人民政府2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B170" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/11/rBUtImIxiDqAMvrfAAP5tziFdes11.docx</t>
+        </is>
+      </c>
+      <c r="C170" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=aa554e5ff8ee4fe1bed14afab44685ea&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D170" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E170" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F170" s="0" t="inlineStr">
+        <is>
+          <t>平昌县残联2019年度部门决算公开编制说明.docx.docx</t>
+        </is>
+      </c>
+      <c r="G170" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/12901541.html</t>
+        </is>
+      </c>
+      <c r="H170" s="0" t="inlineStr">
+        <is>
+          <t>平昌县残联2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B171" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201812/201812261734412481_qqBZ34LZ.xls?fileName=平昌县2018年统筹整合财政涉农资金统计.xls</t>
+        </is>
+      </c>
+      <c r="C171" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8c9754c763ac484c9f1ace235a3fbe96&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D171" s="0" t="inlineStr">
+        <is>
+          <t>出险加固</t>
+        </is>
+      </c>
+      <c r="E171" s="0" t="inlineStr">
+        <is>
+          <t>除险加固</t>
+        </is>
+      </c>
+      <c r="F171" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县2018年统筹整合财政涉农资金统计.xls</t>
+        </is>
+      </c>
+      <c r="G171" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/czzjzdjc/13524851.html</t>
+        </is>
+      </c>
+      <c r="H171" s="0" t="inlineStr">
+        <is>
+          <t>平昌县2018年统筹整合使用财政涉农资金方案公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B172" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201804/201804131600545938_gjABfcB6.xls?fileName=统计局2018年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="C172" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9ca626ff29134373b6fea30cf3394fb2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D172" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E172" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F172" s="0" t="inlineStr">
+        <is>
+          <t>附件：统计局2018年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G172" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336321.html</t>
+        </is>
+      </c>
+      <c r="H172" s="0" t="inlineStr">
+        <is>
+          <t>平昌县统计局2018年度部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B173" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911261850022201_Tr5bVEYM.doc?fileName=巴中市平昌县龙岗镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C173" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6c3afa591cc24b1193e58a37c4779369&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D173" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E173" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F173" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县龙岗镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G173" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12618211.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B174" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/0D/rBUtIl-h9EqAU_LpAAHm7mBYcKA01.docx</t>
+        </is>
+      </c>
+      <c r="C174" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f3f4954772b643518bcdb705d02de325&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D174" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E174" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F174" s="0" t="inlineStr">
+        <is>
+          <t>平昌县佛楼镇2019年度部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G174" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13228431.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B175" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201803/201803081757354469_vKc1xcpr.xls?fileName=2018年部门预算公开表（英烈纪念馆）.xls</t>
+        </is>
+      </c>
+      <c r="C175" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b1ff82c70ce849a1bcc4583279e32054&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D175" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E175" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F175" s="0" t="inlineStr">
+        <is>
+          <t>附件：2018年部门预算公开表（英烈纪念馆）.xls</t>
+        </is>
+      </c>
+      <c r="G175" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336371.html</t>
+        </is>
+      </c>
+      <c r="H175" s="0" t="inlineStr">
+        <is>
+          <t>平昌县英烈纪念园管理局2018部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B176" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911261929592214_UE6WT2H0.doc?fileName=巴中市平昌县鹿鸣镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C176" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3ec6f1c3fa4a47b0ab2c48b79230da2f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D176" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E176" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F176" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县鹿鸣镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G176" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12617891.html</t>
+        </is>
+      </c>
+      <c r="H176" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县鹿鸣镇政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B177" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201803/201803121013174590_bliqxYir.xls?fileName=平昌残联2018年预算公开表.XLS</t>
+        </is>
+      </c>
+      <c r="C177" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=525a6ccf878a46b99651f4ccd3b12c53&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D177" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E177" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F177" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌残联2018年预算公开表.XLS</t>
+        </is>
+      </c>
+      <c r="G177" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336251.html</t>
+        </is>
+      </c>
+      <c r="H177" s="0" t="inlineStr">
+        <is>
+          <t>平昌县残联2018年部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B178" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911261950532226_GYcK4HvZ.doc?fileName=巴中市平昌县元石镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C178" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=be29c137cd8b4926941dff5db91e7f5e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D178" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E178" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F178" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县元石镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G178" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12618041.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B179" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911261939102219_BJWGvjxg.doc?fileName=巴中市平昌县澌滩镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C179" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=71c50654bd61468abae460ded1451c7a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D179" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E179" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F179" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县澌滩镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G179" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12617941.html</t>
+        </is>
+      </c>
+      <c r="H179" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县澌滩镇政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B180" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911261945572223_etJ3rXVZ.doc?fileName=巴中市平昌县土垭镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C180" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b1d351ad416e462992b665fadf73071a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D180" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E180" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F180" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县土垭镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G180" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12617981.html</t>
+        </is>
+      </c>
+      <c r="H180" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县土垭镇政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B181" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/05/14/rBUtImDjTU2AFxZZAACCALd2eTU459.xls</t>
+        </is>
+      </c>
+      <c r="C181" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=881f397670d24b829a1ac7ce7fced8d3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D181" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路条例》</t>
+        </is>
+      </c>
+      <c r="E181" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路管理条例》</t>
+        </is>
+      </c>
+      <c r="F181" s="0" t="inlineStr">
+        <is>
+          <t>四川省涉企行政事业性收费目录清单(2021).xls</t>
+        </is>
+      </c>
+      <c r="G181" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601981/13272841.html</t>
+        </is>
+      </c>
+      <c r="H181" s="0" t="inlineStr">
+        <is>
+          <t>四川省政府性基金和行政事业性收费目录清单（2021年5月）</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B182" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911261949272225_IaZHCsiG.docx?fileName=巴中市平昌县岩口乡政府信息主动公开基本目录.docx</t>
+        </is>
+      </c>
+      <c r="C182" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9d759608a1e244209e32ac0fe8489a22&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D182" s="0" t="inlineStr">
+        <is>
+          <t>环保督查</t>
+        </is>
+      </c>
+      <c r="E182" s="0" t="inlineStr">
+        <is>
+          <t>环保督察</t>
+        </is>
+      </c>
+      <c r="F182" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县岩口乡政府信息主动公开基本目录.docx</t>
+        </is>
+      </c>
+      <c r="G182" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12618011.html</t>
+        </is>
+      </c>
+      <c r="H182" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县岩口乡政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B183" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/58/rBUtImSv0OCAXG-_AADw_DSRZW030.docx</t>
+        </is>
+      </c>
+      <c r="C183" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=128221fd373a426f9f10e741e3b56210&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D183" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E183" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F183" s="0" t="inlineStr">
+        <is>
+          <t>平昌县高峰镇2019年度部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G183" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/12902641.html</t>
+        </is>
+      </c>
+      <c r="H183" s="0" t="inlineStr">
+        <is>
+          <t>平昌县高峰镇2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B184" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201904/201904300928332216_oePDWmUp.xls?fileName=平昌县审计局2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="C184" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a1be19fc82804f46822b637966eba0a9&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D184" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E184" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F184" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县审计局2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G184" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/12824291.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B185" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/00/E6/rBUtIl8L7kCAR47xAAFCAOOGAxQ391.xls</t>
+        </is>
+      </c>
+      <c r="C185" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=67fa0850c0b84e009d074b5586f6ca04&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D185" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路条例》</t>
+        </is>
+      </c>
+      <c r="E185" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路管理条例》</t>
+        </is>
+      </c>
+      <c r="F185" s="0" t="inlineStr">
+        <is>
+          <t>附件2.四川省行政事业性收费目录清单（2020年3月）.xls</t>
+        </is>
+      </c>
+      <c r="G185" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601981/12741031.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B186" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201808/2018081711483710188_ZOcaogVY.docx?fileName=平公共矿挂〔2018〕2号出让须知.docx</t>
+        </is>
+      </c>
+      <c r="C186" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2273c8326f974876aea0d216d93c97b2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D186" s="0" t="inlineStr">
+        <is>
+          <t>帐号</t>
+        </is>
+      </c>
+      <c r="E186" s="0" t="inlineStr">
+        <is>
+          <t>账号</t>
+        </is>
+      </c>
+      <c r="F186" s="0" t="inlineStr">
+        <is>
+          <t>附件：平公共矿挂〔2018〕2号出让须知.docx</t>
+        </is>
+      </c>
+      <c r="G186" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/zyjy/11333841.html</t>
+        </is>
+      </c>
+      <c r="H186" s="0" t="inlineStr">
+        <is>
+          <t>平昌县采矿权挂牌出让公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B187" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/5A/rBUtImSwwA-Abh6FAADCyTNUnl455.docx</t>
+        </is>
+      </c>
+      <c r="C187" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5895b619645e48e2bdc5328d1b5254c4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D187" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E187" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F187" s="0" t="inlineStr">
+        <is>
+          <t>平昌县笔山镇2019年度部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G187" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13228441.html</t>
+        </is>
+      </c>
+      <c r="H187" s="0" t="inlineStr">
+        <is>
+          <t>平昌县笔山镇2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B188" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201712/201712071356171222_oVvRyGrD.doc?fileName=平公共国土挂〔2017〕04号.doc</t>
+        </is>
+      </c>
+      <c r="C188" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a867c7dd876f4fdabe9a085efc45106d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D188" s="0" t="inlineStr">
+        <is>
+          <t>银行帐户</t>
+        </is>
+      </c>
+      <c r="E188" s="0" t="inlineStr">
+        <is>
+          <t>银行账户</t>
+        </is>
+      </c>
+      <c r="F188" s="0" t="inlineStr">
+        <is>
+          <t>附件：平公共国土挂〔2017〕04号.doc</t>
+        </is>
+      </c>
+      <c r="G188" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/zyjy/11333541.html</t>
+        </is>
+      </c>
+      <c r="H188" s="0" t="inlineStr">
+        <is>
+          <t>平公共国土挂〔2017〕04号</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B189" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/13/rBUtImIxrvWAfTwWAAIT9hcZ8pI083.doc</t>
+        </is>
+      </c>
+      <c r="C189" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=48e8811222c74d68a62eee3ab02232f6&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D189" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E189" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F189" s="0" t="inlineStr">
+        <is>
+          <t>平昌县兰草镇2019年度部门决算公开编制说明.doc.doc</t>
+        </is>
+      </c>
+      <c r="G189" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/12902401.html</t>
+        </is>
+      </c>
+      <c r="H189" s="0" t="inlineStr">
+        <is>
+          <t>平昌县兰草镇2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B190" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/02/DC/rBUtIl-QhsmAKrwSAADwAHlVwr8338.xls</t>
+        </is>
+      </c>
+      <c r="C190" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=83640557d086478cbf641407e84ecfd2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D190" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路条例》</t>
+        </is>
+      </c>
+      <c r="E190" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路管理条例》</t>
+        </is>
+      </c>
+      <c r="F190" s="0" t="inlineStr">
+        <is>
+          <t>附件2四川省涉企行政事业性收费目录清单(2020).xls</t>
+        </is>
+      </c>
+      <c r="G190" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601981/12879241.html</t>
+        </is>
+      </c>
+      <c r="H190" s="0" t="inlineStr">
+        <is>
+          <t>四川省涉企行政事业性收费目录清单(2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B191" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911261944112222_h1PZe4Wi.doc?fileName=巴中市平昌县土兴镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C191" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=55c548c8051645aa8302b7a2063aeaa8&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D191" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E191" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F191" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县土兴镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G191" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12617971.html</t>
+        </is>
+      </c>
+      <c r="H191" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县土兴镇政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B192" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911212033152097_tXxe68fq.doc?fileName=巴中市平昌县双鹿乡政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C192" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a5a2dfcdc7ff460a88b91db4a582c698&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D192" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E192" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F192" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县双鹿乡政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G192" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12618091.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B193" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911261953362228_0P9dnhpK.doc?fileName=巴中市平昌县镇龙镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C193" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fda9f8c56d0a4806b053dedf55b1c3c6&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D193" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E193" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F193" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县镇龙镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G193" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12618001.html</t>
+        </is>
+      </c>
+      <c r="H193" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县镇龙镇政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B194" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/05/14/rBUtImDjTU2ASmJHAAEUAEVWFGE475.xls</t>
+        </is>
+      </c>
+      <c r="C194" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=58a70b22d3184ecdad0a372ce998513b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D194" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路条例》</t>
+        </is>
+      </c>
+      <c r="E194" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路管理条例》</t>
+        </is>
+      </c>
+      <c r="F194" s="0" t="inlineStr">
+        <is>
+          <t>四川省行政事业性收费目录清单(2021).xls</t>
+        </is>
+      </c>
+      <c r="G194" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601981/13272841.html</t>
+        </is>
+      </c>
+      <c r="H194" s="0" t="inlineStr">
+        <is>
+          <t>四川省政府性基金和行政事业性收费目录清单（2021年5月）</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B195" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0F/15/rBUtImVEyQmABGuRAADf3p_L8a458.docx</t>
+        </is>
+      </c>
+      <c r="C195" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=bfb1b94af43a40bc944aea1fafba750c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D195" s="0" t="inlineStr">
+        <is>
+          <t>“扫黑除恶”</t>
+        </is>
+      </c>
+      <c r="E195" s="0" t="inlineStr">
+        <is>
+          <t>扫黑除恶</t>
+        </is>
+      </c>
+      <c r="F195" s="0" t="inlineStr">
+        <is>
+          <t>平昌县公安局2019年度部门决算编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G195" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601921/13898701.html</t>
+        </is>
+      </c>
+      <c r="H195" s="0" t="inlineStr">
+        <is>
+          <t>平昌县公安局2019年度部门决算编制说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B196" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0D/60/rBUtImRwbnOANOmUAADek26qI3858.xlsx</t>
+        </is>
+      </c>
+      <c r="C196" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f1b25430f42d4ec39dbcdcbc268b9612&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D196" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E196" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F196" s="0" t="inlineStr">
+        <is>
+          <t>评审中心2023年单位预算公开表.xlsx</t>
+        </is>
+      </c>
+      <c r="G196" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/dwys/13859578.html</t>
+        </is>
+      </c>
+      <c r="H196" s="0" t="inlineStr">
+        <is>
+          <t>平昌县财政投资评审中心2023年单位预算</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B197" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/13/rBUtImIxruuAWyvlAAIT9hcZ8pI292.doc</t>
+        </is>
+      </c>
+      <c r="C197" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5f92b51862ed48739596c7eba2e11007&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D197" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E197" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F197" s="0" t="inlineStr">
+        <is>
+          <t>平昌县兰草镇2019年度部门决算公开编制说明.doc.doc</t>
+        </is>
+      </c>
+      <c r="G197" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603221/12988471.html</t>
+        </is>
+      </c>
+      <c r="H197" s="0" t="inlineStr">
+        <is>
+          <t>平昌县兰草镇2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B198" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201907/2019072309211322_JtMXHsef.xls?fileName=四川省涉企行政事业性收费目录清单(2019年).xls</t>
+        </is>
+      </c>
+      <c r="C198" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1f06bf36d041412eae878a81096e22b2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D198" s="0" t="inlineStr">
+        <is>
+          <t>《特种设备安全监督条例》</t>
+        </is>
+      </c>
+      <c r="E198" s="0" t="inlineStr">
+        <is>
+          <t>《特种设备安全监察条例》</t>
+        </is>
+      </c>
+      <c r="F198" s="0" t="inlineStr">
+        <is>
+          <t>附件：四川省涉企行政事业性收费目录清单(2019年).xls</t>
+        </is>
+      </c>
+      <c r="G198" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/jsjf/10484811.html</t>
+        </is>
+      </c>
+      <c r="H198" s="0" t="inlineStr">
+        <is>
+          <t>四川省政府性基金和行政事业性收费目录清单</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B199" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/0C/rBUtImIv48KAafWtAAEBDK7rZsE49.docx</t>
+        </is>
+      </c>
+      <c r="C199" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=61f4ce8e84e14c4f9ad471dae9f88f43&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D199" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E199" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F199" s="0" t="inlineStr">
+        <is>
+          <t>平昌县鹿鸣镇2019年度部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G199" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/12902011.html</t>
+        </is>
+      </c>
+      <c r="H199" s="0" t="inlineStr">
+        <is>
+          <t>平昌县鹿鸣镇2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B200" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/13/rBUtImIxrNaAMnteAAHjSW9O31Y60.docx</t>
+        </is>
+      </c>
+      <c r="C200" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=cdb4374a44804f5b95ffd0a8083875f4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D200" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E200" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F200" s="0" t="inlineStr">
+        <is>
+          <t>平昌县佛楼镇2019年度部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G200" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603581/13110781.html</t>
+        </is>
+      </c>
+      <c r="H200" s="0" t="inlineStr">
+        <is>
+          <t>平昌县佛楼镇2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B201" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911261947352224_KFHI6qmQ.doc?fileName=巴中市平昌县喜神乡政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C201" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2206ba44283d4a24983fa58d7f1742a9&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D201" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E201" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F201" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县喜神乡政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G201" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12617991.html</t>
+        </is>
+      </c>
+      <c r="H201" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县喜神乡政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B202" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201803/201803191914114918_eH2832ES.xls?fileName=2018年部门预算公开表（文广新局）.xls</t>
+        </is>
+      </c>
+      <c r="C202" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8fd69f599d5743d7a1ad27fecb4ebc5c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D202" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E202" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F202" s="0" t="inlineStr">
+        <is>
+          <t>附件：2018年部门预算公开表（文广新局）.xls</t>
+        </is>
+      </c>
+      <c r="G202" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336081.html</t>
+        </is>
+      </c>
+      <c r="H202" s="0" t="inlineStr">
+        <is>
+          <t>平昌文广新局2018部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B203" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201802/201802281827464236_K5wrJOxZ.doc?fileName=平昌县住建局2018部门预算公开表格及说明.doc</t>
+        </is>
+      </c>
+      <c r="C203" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c90664022d3a4f19a253850c5e91c032&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D203" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E203" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F203" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县住建局2018部门预算公开表格及说明.doc</t>
+        </is>
+      </c>
+      <c r="G203" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336431.html</t>
+        </is>
+      </c>
+      <c r="H203" s="0" t="inlineStr">
+        <is>
+          <t>平昌县住建局2018部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B204" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/EB/rBUtImA367CAd4ZSAACWAMzmJBk928.xls</t>
+        </is>
+      </c>
+      <c r="C204" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e025fe97d9e546d09d2f85ab4a550786&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D204" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路条例》</t>
+        </is>
+      </c>
+      <c r="E204" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路管理条例》</t>
+        </is>
+      </c>
+      <c r="F204" s="0" t="inlineStr">
+        <is>
+          <t>四川省涉企行政事业性收费目录清单.xls</t>
+        </is>
+      </c>
+      <c r="G204" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601981/12741041.html</t>
+        </is>
+      </c>
+      <c r="H204" s="0" t="inlineStr">
+        <is>
+          <t>.四川省涉企行政事业性收费目录清单(2020年3月)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B205" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201803/201803121003464587_wTRGhU94.xls?fileName=平昌妇联2018年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="C205" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=87c2f132eb9246bbac011775b6c62716&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D205" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E205" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F205" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌妇联2018年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G205" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336291.html</t>
+        </is>
+      </c>
+      <c r="H205" s="0" t="inlineStr">
+        <is>
+          <t>平昌妇联2018年部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B206" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911261917162208_NsA4BNWt.doc?fileName=巴中市平昌县得胜镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C206" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1ef27502d0ac46239e92bd2e5af435b1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D206" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E206" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F206" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县得胜镇政府信息主动公开基本目录</t>
+        </is>
+      </c>
+      <c r="G206" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12618051.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B207" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/EC/rBUtImA3_N6Aece3AADMANUbUU0346.xls</t>
+        </is>
+      </c>
+      <c r="C207" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5a3557cce887420ca37f91d60cb70c3d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D207" s="0" t="inlineStr">
+        <is>
+          <t>《特种设备安全监督条例》</t>
+        </is>
+      </c>
+      <c r="E207" s="0" t="inlineStr">
+        <is>
+          <t>《特种设备安全监察条例》</t>
+        </is>
+      </c>
+      <c r="F207" s="0" t="inlineStr">
+        <is>
+          <t>四川省行政事业性收费目录清单（2019年）.xls</t>
+        </is>
+      </c>
+      <c r="G207" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/12835991.html</t>
+        </is>
+      </c>
+      <c r="H207" s="0" t="inlineStr">
+        <is>
+          <t>四川省政府性基金和行政事业性收费目录清单</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B208" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/D2/rBUtImKxYnmAGmUgAAFyAJP6PHA732.xls</t>
+        </is>
+      </c>
+      <c r="C208" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9ae212484f41451987aa92a48abcbc13&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D208" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E208" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F208" s="0" t="inlineStr">
+        <is>
+          <t>2021年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G208" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13760060.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B209" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/04/9A/rBUtImCjiEOAdBflAAKSANxfID0624.xls</t>
+        </is>
+      </c>
+      <c r="C209" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=58e1e34c13344a46bc3f0cbcec90a5c6&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D209" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E209" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F209" s="0" t="inlineStr">
+        <is>
+          <t>平昌县灵山镇2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G209" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6604081/13329781.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B210" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911212034192100_XeIGHd2X.doc?fileName=巴中市平昌县佛楼镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C210" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=049511532fec4aa88b644dfd74007d7e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D210" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E210" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F210" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县佛楼镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G210" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12618061.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B211" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201907/2019072309210621_k1JO0jsc.xls?fileName=四川省行政事业性收费目录清单（2019年）.xls</t>
+        </is>
+      </c>
+      <c r="C211" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=60b3d975eece4fe094629b9f06d1c414&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D211" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路条例》</t>
+        </is>
+      </c>
+      <c r="E211" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路管理条例》</t>
+        </is>
+      </c>
+      <c r="F211" s="0" t="inlineStr">
+        <is>
+          <t>附件：四川省行政事业性收费目录清单（2019年）.xls</t>
+        </is>
+      </c>
+      <c r="G211" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/jsjf/10484811.html</t>
+        </is>
+      </c>
+      <c r="H211" s="0" t="inlineStr">
+        <is>
+          <t>四川省政府性基金和行政事业性收费目录清单</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:04</t>
+        </is>
+      </c>
+      <c r="B212" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/00/E6/rBUtIl8L7l6AeNwqAADYANza7YI708.xls</t>
+        </is>
+      </c>
+      <c r="C212" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=7cf7d74f32ca4ad3877c0f9b0105fb26&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D212" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路条例》</t>
+        </is>
+      </c>
+      <c r="E212" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路管理条例》</t>
+        </is>
+      </c>
+      <c r="F212" s="0" t="inlineStr">
+        <is>
+          <t>附件3.四川省涉企行政事业性收费目录清单(2020年3月).xls</t>
+        </is>
+      </c>
+      <c r="G212" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601981/12741041.html</t>
+        </is>
+      </c>
+      <c r="H212" s="0" t="inlineStr">
+        <is>
+          <t>.四川省涉企行政事业性收费目录清单(2020年3月)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B213" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/3A/rBUtImSSwxqAW6eUAAglGtK01sE78.xlsx</t>
+        </is>
+      </c>
+      <c r="C213" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=52733d94908b47cea155b18c8ac70fc4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D213" s="0" t="inlineStr">
+        <is>
+          <t>国务院国务院令</t>
+        </is>
+      </c>
+      <c r="E213" s="0" t="inlineStr">
+        <is>
+          <t>国务院令</t>
+        </is>
+      </c>
+      <c r="F213" s="0" t="inlineStr">
+        <is>
+          <t>平昌县“双公示”信息目录（2021年本）.xlsx</t>
+        </is>
+      </c>
+      <c r="G213" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/xyxxsgs/xkml/13295701.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B214" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0D/E4/rBUtImSGwwGAJAeCAAGwANPfp-0681.xls</t>
+        </is>
+      </c>
+      <c r="C214" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b63608c589be44cfb0c57f7d47e94b62&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D214" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E214" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F214" s="0" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G214" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602201/13866223.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B215" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0D/E3/rBUtImSFMeSAUbrjAAFePgibfM005.xlsx</t>
+        </is>
+      </c>
+      <c r="C215" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e7ce4f10637d423da36af678b7eb75af&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D215" s="0" t="inlineStr">
+        <is>
+          <t>县委政府</t>
+        </is>
+      </c>
+      <c r="E215" s="0" t="inlineStr">
+        <is>
+          <t>县委县政府</t>
+        </is>
+      </c>
+      <c r="F215" s="0" t="inlineStr">
+        <is>
+          <t>人社局2022年预算公开.xlsx</t>
+        </is>
+      </c>
+      <c r="G215" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602001/13865930.html</t>
+        </is>
+      </c>
+      <c r="H215" s="0" t="inlineStr">
+        <is>
+          <t>平昌县人力资源和社会保障局(含直属单位)2022年部门预算编制说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B216" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0B/D5/rBUtImPhpDmAReJZAAKuDjBUiqc60.xlsx</t>
+        </is>
+      </c>
+      <c r="C216" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5f923c341e77435eb89faf47843e98d1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D216" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E216" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F216" s="0" t="inlineStr">
+        <is>
+          <t>6乳房植入体.xlsx</t>
+        </is>
+      </c>
+      <c r="G216" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602241/13823812.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B217" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0F/15/rBUtImVEyHiAVGMmAAKO2vdNH-808.docx</t>
+        </is>
+      </c>
+      <c r="C217" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6a362c324084493eb79d10a603d0be0a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D217" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E217" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F217" s="0" t="inlineStr">
+        <is>
+          <t>平昌县公安局2021年度部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G217" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601921/13898595.html</t>
+        </is>
+      </c>
+      <c r="H217" s="0" t="inlineStr">
+        <is>
+          <t>平昌县公安局2021年度部门决算公开编制说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B218" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/58/rBUtImSvx8KAAIw0AAC5ZTTtHGg45.docx</t>
+        </is>
+      </c>
+      <c r="C218" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=52042c2e65b34b40a31a20f40309518b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D218" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E218" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F218" s="0" t="inlineStr">
+        <is>
+          <t>平昌县环保局2018年部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G218" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13238751.html</t>
+        </is>
+      </c>
+      <c r="H218" s="0" t="inlineStr">
+        <is>
+          <t>平昌县环境保护局2018年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B219" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/59/rBUtImSwnXmAO7KGAAFCSehAkgc74.docx</t>
+        </is>
+      </c>
+      <c r="C219" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=81ec21a41a0a4c8abc0205118662100b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D219" s="0" t="inlineStr">
+        <is>
+          <t>大部份</t>
+        </is>
+      </c>
+      <c r="E219" s="0" t="inlineStr">
+        <is>
+          <t>大部分</t>
+        </is>
+      </c>
+      <c r="F219" s="0" t="inlineStr">
+        <is>
+          <t>平昌县镇龙镇2019年度部门决算公开</t>
+        </is>
+      </c>
+      <c r="G219" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13228161.html</t>
+        </is>
+      </c>
+      <c r="H219" s="0" t="inlineStr">
+        <is>
+          <t>平昌县镇龙镇2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B220" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/59/rBUtImSwnZSAPyuWAAFCSehAkgc10.docx</t>
+        </is>
+      </c>
+      <c r="C220" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e9cacc6594044b3daf17831c947ba4ea&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D220" s="0" t="inlineStr">
+        <is>
+          <t>大部份</t>
+        </is>
+      </c>
+      <c r="E220" s="0" t="inlineStr">
+        <is>
+          <t>大部分</t>
+        </is>
+      </c>
+      <c r="F220" s="0" t="inlineStr">
+        <is>
+          <t>平昌县镇龙镇2019年度部门决算公开</t>
+        </is>
+      </c>
+      <c r="G220" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603141/13862666.html</t>
+        </is>
+      </c>
+      <c r="H220" s="0" t="inlineStr">
+        <is>
+          <t>平昌县镇龙镇2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B221" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911011700481684_Uo6rea9l.docx?fileName=平昌县政法委2018年部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="C221" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a9a722e3a15b46f79ea5b4db54b82934&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D221" s="0" t="inlineStr">
+        <is>
+          <t>“扫黑除恶”</t>
+        </is>
+      </c>
+      <c r="E221" s="0" t="inlineStr">
+        <is>
+          <t>扫黑除恶</t>
+        </is>
+      </c>
+      <c r="F221" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县政法委2018年部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G221" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/11340491.html</t>
+        </is>
+      </c>
+      <c r="H221" s="0" t="inlineStr">
+        <is>
+          <t>平昌县政法委2018年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B222" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcxxxgk/Articles/50303312/2018/03/08/20180308181200-356499.docx</t>
+        </is>
+      </c>
+      <c r="C222" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=4ee94cf1ef60449c81fd294defbab77d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D222" s="0" t="inlineStr">
+        <is>
+          <t>、以及</t>
+        </is>
+      </c>
+      <c r="E222" s="0" t="inlineStr">
+        <is>
+          <t>以及</t>
+        </is>
+      </c>
+      <c r="F222" s="0" t="inlineStr">
+        <is>
+          <t>关于2017年度政府信息公开情况的报告</t>
+        </is>
+      </c>
+      <c r="G222" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603201/11285361.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B223" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/EC/rBUtImA4AiyAWeFJAAD6AHmOizg480.xls</t>
+        </is>
+      </c>
+      <c r="C223" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8ae3ce14b1fb42f4baa80b1961eace7c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D223" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路条例》</t>
+        </is>
+      </c>
+      <c r="E223" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路管理条例》</t>
+        </is>
+      </c>
+      <c r="F223" s="0" t="inlineStr">
+        <is>
+          <t>四川省行政事业性收费目录清单（2019年）.xls</t>
+        </is>
+      </c>
+      <c r="G223" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/12835881.html</t>
+        </is>
+      </c>
+      <c r="H223" s="0" t="inlineStr">
+        <is>
+          <t>四川省财政厅四川省发展和改革委员会关于公布四川省行政事业性收费等目录清单的通知(川财税〔2019〕13号)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B224" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/13/rBUtImIxrOWANSChAAHjSW9O31Y44.docx</t>
+        </is>
+      </c>
+      <c r="C224" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1e0ba8f3c3fa4fde8a605a3492019c4f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D224" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E224" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F224" s="0" t="inlineStr">
+        <is>
+          <t>平昌县佛楼镇2019年度部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G224" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13228431.html</t>
+        </is>
+      </c>
+      <c r="H224" s="0" t="inlineStr">
+        <is>
+          <t>平昌县佛楼镇2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B225" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201904/201904230947251909_HI8rULdf.xls?fileName=平昌县委党校2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="C225" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=60fe5bb1af494686bd3b0a87334f8a01&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D225" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E225" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F225" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县委党校2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G225" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336671.html</t>
+        </is>
+      </c>
+      <c r="H225" s="0" t="inlineStr">
+        <is>
+          <t>平昌县县委党校2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B226" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201804/201804161658576042_DCjmhZ1m.xls?fileName=2018年预算公开表（审计局）.XLS</t>
+        </is>
+      </c>
+      <c r="C226" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1e978e523e8643918035b0f83bf24cba&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D226" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E226" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F226" s="0" t="inlineStr">
+        <is>
+          <t>附件：2018年预算公开表（审计局）.XLS</t>
+        </is>
+      </c>
+      <c r="G226" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336301.html</t>
+        </is>
+      </c>
+      <c r="H226" s="0" t="inlineStr">
+        <is>
+          <t>平昌县审计局2018年部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B227" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911212032052094_0sgp07Ai.doc?fileName=巴中市平昌县西兴镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C227" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=63774bf53a224452a10783c74ddc8243&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D227" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E227" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F227" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县西兴镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G227" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12618121.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B228" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911191406052010_mLLQT06A.docx?fileName=巴中市平昌县大寨镇政府信息主动公开基本目录.docx</t>
+        </is>
+      </c>
+      <c r="C228" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=aa35fba10ba04b11ae2b3b905090bb79&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D228" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E228" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F228" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县大寨镇政府信息主动公开基本目录.docx</t>
+        </is>
+      </c>
+      <c r="G228" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12617831.html</t>
+        </is>
+      </c>
+      <c r="H228" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县大寨镇政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B229" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0D/CD/rBUtImR-5vKAPDXFAAa2bwVTBCM70.xlsx</t>
+        </is>
+      </c>
+      <c r="C229" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5f97541029584ae18cd0715d1d658e91&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D229" s="0" t="inlineStr">
+        <is>
+          <t>、或者</t>
+        </is>
+      </c>
+      <c r="E229" s="0" t="inlineStr">
+        <is>
+          <t>或者</t>
+        </is>
+      </c>
+      <c r="F229" s="0" t="inlineStr">
+        <is>
+          <t>县级部门其他行政权力事项基本目录清单.xlsx</t>
+        </is>
+      </c>
+      <c r="G229" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/fgf/10482581.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B230" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0D/30/rBUtImRHqa-ANXHRACoVasyUfGg947.doc</t>
+        </is>
+      </c>
+      <c r="C230" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e2b4dac3509f499fb8d7b4df1f8fe33f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D230" s="0" t="inlineStr">
+        <is>
+          <t>《矿产资源开釆登记管理办法》</t>
+        </is>
+      </c>
+      <c r="E230" s="0" t="inlineStr">
+        <is>
+          <t>《矿产资源开采登记管理办法》</t>
+        </is>
+      </c>
+      <c r="F230" s="0" t="inlineStr">
+        <is>
+          <t>附件4：30个试点领域基层政务公开标准目录汇编（镇、办事处模板）.doc</t>
+        </is>
+      </c>
+      <c r="G230" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/jczwgk/zcwj/13849153.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B231" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/FA/rBUtImUsr7yAdeHaAAQ1d5ZaF7g408.doc</t>
+        </is>
+      </c>
+      <c r="C231" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=dc879f184c9249118a60fa5b2d9830d6&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D231" s="0" t="inlineStr">
+        <is>
+          <t>《中华人民共和国土地管理实施条例》</t>
+        </is>
+      </c>
+      <c r="E231" s="0" t="inlineStr">
+        <is>
+          <t>《中华人民共和国土地管理法实施条例》</t>
+        </is>
+      </c>
+      <c r="F231" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县青凤镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G231" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12617921.html</t>
+        </is>
+      </c>
+      <c r="H231" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县青凤镇政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B232" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0D/5C/rBUtImRwE6iAQ_LeAADyJX5aAXk88.xlsx</t>
+        </is>
+      </c>
+      <c r="C232" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0be1ee1287a440f9adbee59e9bd151f8&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D232" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E232" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F232" s="0" t="inlineStr">
+        <is>
+          <t>2023年财政局机关单位预算公开.xlsx</t>
+        </is>
+      </c>
+      <c r="G232" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/dwys/13858863.html</t>
+        </is>
+      </c>
+      <c r="H232" s="0" t="inlineStr">
+        <is>
+          <t>平昌县财政局单位2023年单位预算</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B233" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/58/rBUtImSvyPCAAvo-AAFPsu3N69448.docx</t>
+        </is>
+      </c>
+      <c r="C233" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=21abab55960349079720d77707575ce1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D233" s="0" t="inlineStr">
+        <is>
+          <t>党的十九大及历次全会精神</t>
+        </is>
+      </c>
+      <c r="E233" s="0" t="inlineStr">
+        <is>
+          <t>党的十九大和十九届历次全会精神</t>
+        </is>
+      </c>
+      <c r="F233" s="0" t="inlineStr">
+        <is>
+          <t>平昌生态环境局2019年度部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G233" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/12901361.html</t>
+        </is>
+      </c>
+      <c r="H233" s="0" t="inlineStr">
+        <is>
+          <t>平昌生态环境局2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B234" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0D/5D/rBUtImRwHaKAO8cQAAEB6KUJsGA68.xlsx</t>
+        </is>
+      </c>
+      <c r="C234" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ee31dcb5721342ba8202668e564dab9a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D234" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E234" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F234" s="0" t="inlineStr">
+        <is>
+          <t>2023年平昌县妇女联合会部门预算公开.xlsx</t>
+        </is>
+      </c>
+      <c r="G234" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13859119.html</t>
+        </is>
+      </c>
+      <c r="H234" s="0" t="inlineStr">
+        <is>
+          <t>平昌县妇女联合会2023年部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B235" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/13/rBUtImIxrUuAFB5AAADj969MPNk52.docx</t>
+        </is>
+      </c>
+      <c r="C235" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b956b10046994ed3a1d65b2cf41010c1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D235" s="0" t="inlineStr">
+        <is>
+          <t>基础实施建设</t>
+        </is>
+      </c>
+      <c r="E235" s="0" t="inlineStr">
+        <is>
+          <t>基础设施建设</t>
+        </is>
+      </c>
+      <c r="F235" s="0" t="inlineStr">
+        <is>
+          <t>平昌县南风乡2019年度部门决算公开编制说明.docx.docx</t>
+        </is>
+      </c>
+      <c r="G235" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/12902431.html</t>
+        </is>
+      </c>
+      <c r="H235" s="0" t="inlineStr">
+        <is>
+          <t>平昌县南风乡2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B236" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201803/201803151831544759_pl71t2Yt.xls?fileName=2018年部门预算公开表（编办）.xls</t>
+        </is>
+      </c>
+      <c r="C236" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a7665aea2263436ca43c1d23d3ff38b2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D236" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E236" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F236" s="0" t="inlineStr">
+        <is>
+          <t>附件：2018年部门预算公开表（编办）.xls</t>
+        </is>
+      </c>
+      <c r="G236" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336261.html</t>
+        </is>
+      </c>
+      <c r="H236" s="0" t="inlineStr">
+        <is>
+          <t>平昌县委编办2018部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B237" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/UploadFiles/1/2017/5/20170514095645364536.doc</t>
+        </is>
+      </c>
+      <c r="C237" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=4aca96dc7add41339519a7271ba0521f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D237" s="0" t="inlineStr">
+        <is>
+          <t>银行帐户</t>
+        </is>
+      </c>
+      <c r="E237" s="0" t="inlineStr">
+        <is>
+          <t>银行账户</t>
+        </is>
+      </c>
+      <c r="F237" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县新老城区道旗广告经营权出让招商方案</t>
+        </is>
+      </c>
+      <c r="G237" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/gsgg/12647491.html</t>
+        </is>
+      </c>
+      <c r="H237" s="0" t="inlineStr">
+        <is>
+          <t>平昌县新老城区道旗广告经营权出让竞争性谈判公告（第二次）</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B238" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201803/201803201308074967_5jMtsmvu.xls?fileName=平昌县宣传部2018年预算公开表.XLS</t>
+        </is>
+      </c>
+      <c r="C238" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0c10f8fdcb8c4ee7bc512d1630014966&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D238" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E238" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F238" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县宣传部2018年预算公开表.XLS</t>
+        </is>
+      </c>
+      <c r="G238" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336481.html</t>
+        </is>
+      </c>
+      <c r="H238" s="0" t="inlineStr">
+        <is>
+          <t>平昌县委宣传部2018部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B239" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201803/201803191900024916_CUj7LCma.xls?fileName=2018年部门预算公开表(交易中心).xls</t>
+        </is>
+      </c>
+      <c r="C239" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3b5f8c1b82ad495c9d484bb21c62c9fc&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D239" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E239" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F239" s="0" t="inlineStr">
+        <is>
+          <t>附件：2018年部门预算公开表(交易中心).xls</t>
+        </is>
+      </c>
+      <c r="G239" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602441/11859881.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B240" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201907/20190726103406133_jEbaIYHo.xls?fileName=平昌县国有资产管理局2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="C240" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=61bfa4ba813945f4997e3845ad72064c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D240" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E240" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F240" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县国有资产管理局2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G240" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336931.html</t>
+        </is>
+      </c>
+      <c r="H240" s="0" t="inlineStr">
+        <is>
+          <t>平昌县国有资产管理局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B241" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5965d433ceab06a11213e593/201804/201804131446005935_9o2Yja1u.xls?fileName=2018年部门预算公开表（财政局汇总）.xls</t>
+        </is>
+      </c>
+      <c r="C241" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=40247cd5ad3f480a924ca5dec5695595&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D241" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E241" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F241" s="0" t="inlineStr">
+        <is>
+          <t>附件：2018年部门预算公开表（财政局汇总）.xls</t>
+        </is>
+      </c>
+      <c r="G241" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336311.html</t>
+        </is>
+      </c>
+      <c r="H241" s="0" t="inlineStr">
+        <is>
+          <t>平昌县财政局2018年度部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B242" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911212032532096_yiB4PuQe.doc?fileName=巴中市平昌县望京镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C242" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3656fb42e46c484a830108b0773423c8&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D242" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E242" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F242" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县望京镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G242" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12618101.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B243" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911261928062213_HHaSTS2I.doc?fileName=巴中市平昌县灵山镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="C243" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d341a7d79c4d442aa15f6ad9e3e11e25&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D243" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E243" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F243" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县灵山镇政府信息主动公开基本目录.doc</t>
+        </is>
+      </c>
+      <c r="G243" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12617881.html</t>
+        </is>
+      </c>
+      <c r="H243" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县灵山镇政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B244" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/EC/rBUtImA4AqaAFgSgAAB4AJ6nECU199.xls</t>
+        </is>
+      </c>
+      <c r="C244" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fb916b40b35d490185e8bfcefd36ae33&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D244" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路条例》</t>
+        </is>
+      </c>
+      <c r="E244" s="0" t="inlineStr">
+        <is>
+          <t>《收费公路管理条例》</t>
+        </is>
+      </c>
+      <c r="F244" s="0" t="inlineStr">
+        <is>
+          <t>四川省涉企行政事业性收费目录清单(2019年).xls</t>
+        </is>
+      </c>
+      <c r="G244" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/12835881.html</t>
+        </is>
+      </c>
+      <c r="H244" s="0" t="inlineStr">
+        <is>
+          <t>四川省财政厅四川省发展和改革委员会关于公布四川省行政事业性收费等目录清单的通知(川财税〔2019〕13号)</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:06</t>
+        </is>
+      </c>
+      <c r="B245" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/04/99/rBUtImCjMB2AAjPQAAE2AKQxQV0298.xls</t>
+        </is>
+      </c>
+      <c r="C245" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c81a4423bed546718b5070bda375e642&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D245" s="0" t="inlineStr">
+        <is>
+          <t>市城乡住房建设局</t>
+        </is>
+      </c>
+      <c r="E245" s="0" t="inlineStr">
+        <is>
+          <t>市住房和城乡建设局</t>
+        </is>
+      </c>
+      <c r="F245" s="0" t="inlineStr">
+        <is>
+          <t>平昌县2021年深化“放管服”改革优化营商环境工作要点</t>
+        </is>
+      </c>
+      <c r="G245" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602381/13910526.html</t>
+        </is>
+      </c>
+      <c r="H245" s="0" t="inlineStr">
+        <is>
+          <t>平昌县2021年深化“放管服”改革优化营商环境工作要点</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:57</t>
+        </is>
+      </c>
+      <c r="B246" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/0A/rBUtIl-h4cmAbMutAADrX14cZ9Q84.docx</t>
+        </is>
+      </c>
+      <c r="C246" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e3f4315999bd484d8b55a0fbd457afdd&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D246" s="0" t="inlineStr">
+        <is>
+          <t>截止目前</t>
+        </is>
+      </c>
+      <c r="E246" s="0" t="inlineStr">
+        <is>
+          <t>截至目前</t>
+        </is>
+      </c>
+      <c r="F246" s="0" t="inlineStr">
+        <is>
+          <t>平昌县经济和信息化局2019年度部门决算公开</t>
+        </is>
+      </c>
+      <c r="G246" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/12901441.html</t>
+        </is>
+      </c>
+      <c r="H246" s="0" t="inlineStr">
+        <is>
+          <t>平昌县经济和信息化局2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:57</t>
+        </is>
+      </c>
+      <c r="B247" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/02/F6/rBUtIl-huEyAIDm4AADt7iOCOcE43.docx</t>
+        </is>
+      </c>
+      <c r="C247" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9d207b7756354673b761a090b80b2cd1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D247" s="0" t="inlineStr">
+        <is>
+          <t>截止目前</t>
+        </is>
+      </c>
+      <c r="E247" s="0" t="inlineStr">
+        <is>
+          <t>截至目前</t>
+        </is>
+      </c>
+      <c r="F247" s="0" t="inlineStr">
+        <is>
+          <t>平昌县国资局2019年度部门决算公开</t>
+        </is>
+      </c>
+      <c r="G247" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/12901141.html</t>
+        </is>
+      </c>
+      <c r="H247" s="0" t="inlineStr">
+        <is>
+          <t>平昌县国资局2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-18 23:22</t>
+        </is>
+      </c>
+      <c r="B248" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/5962e4d1ceab06a72d13e593/201911/201911011632191624_haq3DBXE.docx?fileName=平昌县招商局2018年部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="C248" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8c9ce070139642c298fe3ecc2c36daf3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D248" s="0" t="inlineStr">
+        <is>
+          <t>市委政府</t>
+        </is>
+      </c>
+      <c r="E248" s="0" t="inlineStr">
+        <is>
+          <t>市委市政府</t>
+        </is>
+      </c>
+      <c r="F248" s="0" t="inlineStr">
+        <is>
+          <t>平昌县招商局2018年度部门决算公开</t>
+        </is>
+      </c>
+      <c r="G248" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/11340211.html</t>
+        </is>
+      </c>
+      <c r="H248" s="0" t="inlineStr">
+        <is>
+          <t>平昌县招商局2018年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-01-18 23:23</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/04/6E/rBUtImCKbveAGoctAABZ-XbKShY05.xlsx</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=eb6c06ed9c76412f8065b03b9d6564f3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>疾病预防控中心</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>疾病预防控制中心</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>关于公布平昌县2021年公开考核招聘卫生专业技术工作人员面试成绩的公告</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602001/13805061.html</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>关于公布平昌县2021年公开考核招聘卫生专业技术工作人员面试成绩的公告</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1223,7 +1223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H249"/>
+  <dimension ref="A1:H283"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
       <selection activeCell="B159" sqref="B159"/>
@@ -11117,44 +11117,1472 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
+      <c r="A249" s="0" t="inlineStr">
         <is>
           <t>2025-01-18 23:23</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="0" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/group3/M00/04/6E/rBUtImCKbveAGoctAABZ-XbKShY05.xlsx</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=eb6c06ed9c76412f8065b03b9d6564f3&amp;type=0</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr">
+      <c r="D249" s="0" t="inlineStr">
         <is>
           <t>疾病预防控中心</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
+      <c r="E249" s="0" t="inlineStr">
         <is>
           <t>疾病预防控制中心</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
+      <c r="F249" s="0" t="inlineStr">
         <is>
           <t>关于公布平昌县2021年公开考核招聘卫生专业技术工作人员面试成绩的公告</t>
         </is>
       </c>
-      <c r="G249" t="inlineStr">
+      <c r="G249" s="0" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/public/6602001/13805061.html</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
+      <c r="H249" s="0" t="inlineStr">
         <is>
           <t>关于公布平昌县2021年公开考核招聘卫生专业技术工作人员面试成绩的公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-18 14:19</t>
+        </is>
+      </c>
+      <c r="B250" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/A1/rBUtImfKVEeAEuLeAEIOI_OoKkg471.pdf</t>
+        </is>
+      </c>
+      <c r="C250" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ebf24f5cf37440038531bf9b4ac4f89b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D250" s="0" t="inlineStr">
+        <is>
+          <t>晚上22点</t>
+        </is>
+      </c>
+      <c r="E250" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F250" s="0" t="inlineStr">
+        <is>
+          <t>平页2井平台钻井工程--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G250" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13903129.html</t>
+        </is>
+      </c>
+      <c r="H250" s="0" t="inlineStr">
+        <is>
+          <t>关于2023年11月14日已受理建设项目环评文件公告(大庆油田有限责任公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-21 14:31</t>
+        </is>
+      </c>
+      <c r="B251" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0D/30/rBUtImRHqamAXxxmAKYTr45aIPQ602.doc</t>
+        </is>
+      </c>
+      <c r="C251" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=78b77a84ebea49908e26ed458be46f42&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D251" s="0" t="inlineStr">
+        <is>
+          <t>帐册</t>
+        </is>
+      </c>
+      <c r="E251" s="0" t="inlineStr">
+        <is>
+          <t>账册</t>
+        </is>
+      </c>
+      <c r="F251" s="0" t="inlineStr">
+        <is>
+          <t>附件3：30个试点领域基层政务公开标准目录汇编（部门模板）.doc</t>
+        </is>
+      </c>
+      <c r="G251" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/jczwgk/zcwj/13849153.html</t>
+        </is>
+      </c>
+      <c r="H251" s="0" t="inlineStr">
+        <is>
+          <t>平昌县人民政府办公室 关于进一步深化政务公开工作成效 促进基层治理能力提升的通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-25 09:23</t>
+        </is>
+      </c>
+      <c r="B252" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/A1/rBUtImfKVaeAQkjuABd3vBdyW08761.pdf</t>
+        </is>
+      </c>
+      <c r="C252" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=03a4008442154a1ba6209a59e618e4a6&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D252" s="0" t="inlineStr">
+        <is>
+          <t>、以及</t>
+        </is>
+      </c>
+      <c r="E252" s="0" t="inlineStr">
+        <is>
+          <t>以及</t>
+        </is>
+      </c>
+      <c r="F252" s="0" t="inlineStr">
+        <is>
+          <t>平昌县机电油料公司三江加油站整体改建--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G252" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851384.html</t>
+        </is>
+      </c>
+      <c r="H252" s="0" t="inlineStr">
+        <is>
+          <t>关于2019年5月27日已受理建设项目环评文件公告(平昌县机电油料公司三江加油站整体改建项目)</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-25 13:47</t>
+        </is>
+      </c>
+      <c r="B253" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/65/rBUtImelafKAZpClABxDzrvWzzo357.pdf</t>
+        </is>
+      </c>
+      <c r="C253" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0dffe70c58dd43be8ea9863a3ff9e529&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D253" s="0" t="inlineStr">
+        <is>
+          <t>帐册</t>
+        </is>
+      </c>
+      <c r="E253" s="0" t="inlineStr">
+        <is>
+          <t>账册</t>
+        </is>
+      </c>
+      <c r="F253" s="0" t="inlineStr">
+        <is>
+          <t>平昌县新庙卫生院业务综合楼建设项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G253" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851537.html</t>
+        </is>
+      </c>
+      <c r="H253" s="0" t="inlineStr">
+        <is>
+          <t>关于2017年9月21日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-25 13:48</t>
+        </is>
+      </c>
+      <c r="B254" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/A0/rBUtImfKTWuAWYc5ABOu7UaU4Z0780.pdf</t>
+        </is>
+      </c>
+      <c r="C254" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=43391fd3feb24872a030e5acae87c9fd&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D254" s="0" t="inlineStr">
+        <is>
+          <t>、以及</t>
+        </is>
+      </c>
+      <c r="E254" s="0" t="inlineStr">
+        <is>
+          <t>以及</t>
+        </is>
+      </c>
+      <c r="F254" s="0" t="inlineStr">
+        <is>
+          <t>通江单采血浆站平昌采浆点建设项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G254" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851408.html</t>
+        </is>
+      </c>
+      <c r="H254" s="0" t="inlineStr">
+        <is>
+          <t>关于2019年1月30日已受理建设项目环评文件公告(通江单采血浆站平昌采浆点建设项目)</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-27 17:18</t>
+        </is>
+      </c>
+      <c r="B255" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/B1/rBUtImfZJRmAU2CgABJbDCzRJCs015.pdf</t>
+        </is>
+      </c>
+      <c r="C255" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=87d9c6b34e434d93b1aa561ef4f223e1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D255" s="0" t="inlineStr">
+        <is>
+          <t>涉及到</t>
+        </is>
+      </c>
+      <c r="E255" s="0" t="inlineStr">
+        <is>
+          <t>语义重复：涉及指“关联到或牵涉到”；及指“至或到达”。</t>
+        </is>
+      </c>
+      <c r="F255" s="0" t="inlineStr">
+        <is>
+          <t>平昌县明润混凝土搅拌站建设项目.pdf</t>
+        </is>
+      </c>
+      <c r="G255" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851282.html</t>
+        </is>
+      </c>
+      <c r="H255" s="0" t="inlineStr">
+        <is>
+          <t>关于2020年11月23日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-27 17:19</t>
+        </is>
+      </c>
+      <c r="B256" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/09/F7/rBUtImMQL_eAVMNCAALUR0qViqc951.doc</t>
+        </is>
+      </c>
+      <c r="C256" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=07b84356eed84b818a0e7a49a958b2be&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D256" s="0" t="inlineStr">
+        <is>
+          <t>帐务</t>
+        </is>
+      </c>
+      <c r="E256" s="0" t="inlineStr">
+        <is>
+          <t>账务</t>
+        </is>
+      </c>
+      <c r="F256" s="0" t="inlineStr">
+        <is>
+          <t>2019年度平昌县大寨镇部门决算公开编制说明.doc</t>
+        </is>
+      </c>
+      <c r="G256" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603501/12912361.html</t>
+        </is>
+      </c>
+      <c r="H256" s="0" t="inlineStr">
+        <is>
+          <t>平昌县大寨镇2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 09:14</t>
+        </is>
+      </c>
+      <c r="B257" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/13/29/rBUtImch1c2ARHzxADo15IILEMk217.pdf</t>
+        </is>
+      </c>
+      <c r="C257" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5cf3341a8bef4ea690ee33aadfd12e51&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D257" s="0" t="inlineStr">
+        <is>
+          <t>下午13:30</t>
+        </is>
+      </c>
+      <c r="E257" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F257" s="0" t="inlineStr">
+        <is>
+          <t>平昌县餐厨垃圾收运处置项目（一期）--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G257" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13968036.html</t>
+        </is>
+      </c>
+      <c r="H257" s="0" t="inlineStr">
+        <is>
+          <t>关于2024年10月25日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 09:14</t>
+        </is>
+      </c>
+      <c r="B258" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/10/D7/rBUtImWA8t6AF_5TADLa94nSpKg106.pdf</t>
+        </is>
+      </c>
+      <c r="C258" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c630e306c10a467c9cb4464732f00fa9&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D258" s="0" t="inlineStr">
+        <is>
+          <t>1月12月</t>
+        </is>
+      </c>
+      <c r="E258" s="0" t="inlineStr">
+        <is>
+          <t>疑似日期错误，建议修改</t>
+        </is>
+      </c>
+      <c r="F258" s="0" t="inlineStr">
+        <is>
+          <t>镇巴（川陕界）至广安高速公路通江至广安段 C4合同段 1#拌合站-公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G258" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13913256.html</t>
+        </is>
+      </c>
+      <c r="H258" s="0" t="inlineStr">
+        <is>
+          <t>关于2023年12月18日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 09:14</t>
+        </is>
+      </c>
+      <c r="B259" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/13/29/rBUtImci6nKAD7LjADOSAueKnrs040.pdf</t>
+        </is>
+      </c>
+      <c r="C259" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=dec8ffac50b6478e87a5e26866c69345&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D259" s="0" t="inlineStr">
+        <is>
+          <t>1月12月</t>
+        </is>
+      </c>
+      <c r="E259" s="0" t="inlineStr">
+        <is>
+          <t>疑似日期错误，建议修改</t>
+        </is>
+      </c>
+      <c r="F259" s="0" t="inlineStr">
+        <is>
+          <t>平安 102 井钻井工程（重新报批）--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G259" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13968449.html</t>
+        </is>
+      </c>
+      <c r="H259" s="0" t="inlineStr">
+        <is>
+          <t>关于2024年10月29日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 09:14</t>
+        </is>
+      </c>
+      <c r="B260" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/B1/rBUtImfZGvGALSHlAAxbxPrJCro835.pdf</t>
+        </is>
+      </c>
+      <c r="C260" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=4aba07e7882543c7a73ced77e11c1ac3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D260" s="0" t="inlineStr">
+        <is>
+          <t>晚上22点</t>
+        </is>
+      </c>
+      <c r="E260" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F260" s="0" t="inlineStr">
+        <is>
+          <t>平昌县罐寨山建材销售有限公司砂石厂新建项目.pdf</t>
+        </is>
+      </c>
+      <c r="G260" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851267.html</t>
+        </is>
+      </c>
+      <c r="H260" s="0" t="inlineStr">
+        <is>
+          <t>关于2020年12月21日已受理建设项目环评文件公告（平昌县罐寨山建材销售有限公司砂石厂新建项目）</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 09:14</t>
+        </is>
+      </c>
+      <c r="B261" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/13/27/rBUtImcbUOWAeKapADnsI3X-OnI288.pdf</t>
+        </is>
+      </c>
+      <c r="C261" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6f61a72656624e26a268feff5c29540a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D261" s="0" t="inlineStr">
+        <is>
+          <t>晚上22:30</t>
+        </is>
+      </c>
+      <c r="E261" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F261" s="0" t="inlineStr">
+        <is>
+          <t>关于2024年10月25日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+      <c r="G261" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13968036.html</t>
+        </is>
+      </c>
+      <c r="H261" s="0" t="inlineStr">
+        <is>
+          <t>关于2024年10月25日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 11:17</t>
+        </is>
+      </c>
+      <c r="B262" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/13/29/rBUtImch2riAIMk_ADo15IILEMk180.pdf</t>
+        </is>
+      </c>
+      <c r="C262" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1f4c6184b407401c92ab2a165abfb8f1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D262" s="0" t="inlineStr">
+        <is>
+          <t>下午13:30</t>
+        </is>
+      </c>
+      <c r="E262" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F262" s="0" t="inlineStr">
+        <is>
+          <t>平昌县餐厨垃圾收运处置项目（一期）--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G262" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13966457.html</t>
+        </is>
+      </c>
+      <c r="H262" s="0" t="inlineStr">
+        <is>
+          <t>关于2024年10月15日已受理建设项目环评文件公告(平昌县储备林暨森林康养基地项目)</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 12:40</t>
+        </is>
+      </c>
+      <c r="B263" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/44/rBUtImScBnSAKkRbABwqvBD4E1w817.pdf</t>
+        </is>
+      </c>
+      <c r="C263" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9d10c87fb23541629c7b418ef5ab3183&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D263" s="0" t="inlineStr">
+        <is>
+          <t>帐册</t>
+        </is>
+      </c>
+      <c r="E263" s="0" t="inlineStr">
+        <is>
+          <t>账册</t>
+        </is>
+      </c>
+      <c r="F263" s="0" t="inlineStr">
+        <is>
+          <t>平昌县新庙卫生院业务综合楼建设项目 环境影响报告表（报批件）.pdf</t>
+        </is>
+      </c>
+      <c r="G263" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851537.html</t>
+        </is>
+      </c>
+      <c r="H263" s="0" t="inlineStr">
+        <is>
+          <t>关于2017年9月21日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 12:43</t>
+        </is>
+      </c>
+      <c r="B264" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/10/E5/rBUtImWD3oSAd-0AABqdIiig5c8404.pdf</t>
+        </is>
+      </c>
+      <c r="C264" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6be83fcbb73f43a18312d6f4b6c33969&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D264" s="0" t="inlineStr">
+        <is>
+          <t>1月12月</t>
+        </is>
+      </c>
+      <c r="E264" s="0" t="inlineStr">
+        <is>
+          <t>疑似日期错误，建议修改</t>
+        </is>
+      </c>
+      <c r="F264" s="0" t="inlineStr">
+        <is>
+          <t>镇巴（川陕界）至广安高速公路通江至广安段C5合同段3#湿喷站项目-公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G264" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13913948.html</t>
+        </is>
+      </c>
+      <c r="H264" s="0" t="inlineStr">
+        <is>
+          <t>关于2023年12月21日已受理建设项目环评文件公告(四川嘉钒建筑工程有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 12:43</t>
+        </is>
+      </c>
+      <c r="B265" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/11/13/rBUtImWzXH6Afb37ABt4nl8FnqY786.pdf</t>
+        </is>
+      </c>
+      <c r="C265" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9627bdcf76824a4ab0037031d5bf548d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D265" s="0" t="inlineStr">
+        <is>
+          <t>1月12月</t>
+        </is>
+      </c>
+      <c r="E265" s="0" t="inlineStr">
+        <is>
+          <t>疑似日期错误，建议修改</t>
+        </is>
+      </c>
+      <c r="F265" s="0" t="inlineStr">
+        <is>
+          <t>镇巴（川陕界）至广安高速公路通江至广安段 C5 合同段 3#拌合站项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G265" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13913259.html</t>
+        </is>
+      </c>
+      <c r="H265" s="0" t="inlineStr">
+        <is>
+          <t>关于2023年12月18日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 12:43</t>
+        </is>
+      </c>
+      <c r="B266" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/B0/rBUtImfY3B-AGuNGAAxBpFNQ6-8337.pdf</t>
+        </is>
+      </c>
+      <c r="C266" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=bc37169235b8403fbd72a50f8b8f3240&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D266" s="0" t="inlineStr">
+        <is>
+          <t>活性碳</t>
+        </is>
+      </c>
+      <c r="E266" s="0" t="inlineStr">
+        <is>
+          <t>活性炭</t>
+        </is>
+      </c>
+      <c r="F266" s="0" t="inlineStr">
+        <is>
+          <t>平昌县青田伯温小学建设项目.pdf</t>
+        </is>
+      </c>
+      <c r="G266" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851372.html</t>
+        </is>
+      </c>
+      <c r="H266" s="0" t="inlineStr">
+        <is>
+          <t>关于2019年7月15日已受理建设项目环评文件公告(平昌县青田伯温小学建设项目)</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 17:47</t>
+        </is>
+      </c>
+      <c r="B267" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/11/rBUtImIxgr6AP5ayAAnHPXqQHbE503.pdf</t>
+        </is>
+      </c>
+      <c r="C267" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9373b424af344dd6ac30f6a2a41edd41&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D267" s="0" t="inlineStr">
+        <is>
+          <t>混凝士</t>
+        </is>
+      </c>
+      <c r="E267" s="0" t="inlineStr">
+        <is>
+          <t>混凝土</t>
+        </is>
+      </c>
+      <c r="F267" s="0" t="inlineStr">
+        <is>
+          <t>巴河平昌县白衣镇防洪堤工程环境影响报告表（公示本）.pdf</t>
+        </is>
+      </c>
+      <c r="G267" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/hjbh/13208611.html</t>
+        </is>
+      </c>
+      <c r="H267" s="0" t="inlineStr">
+        <is>
+          <t>关于2021年5月25日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 17:47</t>
+        </is>
+      </c>
+      <c r="B268" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/04/AB/rBUtImCsufmAZ8-CAAm8gRSJLd0692.pdf</t>
+        </is>
+      </c>
+      <c r="C268" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=97d58e208c93440e92a61ece0dd7f5dc&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D268" s="0" t="inlineStr">
+        <is>
+          <t>混凝士</t>
+        </is>
+      </c>
+      <c r="E268" s="0" t="inlineStr">
+        <is>
+          <t>混凝土</t>
+        </is>
+      </c>
+      <c r="F268" s="0" t="inlineStr">
+        <is>
+          <t>关于2021年5月25日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+      <c r="G268" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13229801.html</t>
+        </is>
+      </c>
+      <c r="H268" s="0" t="inlineStr">
+        <is>
+          <t>关于2021年5月25日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 17:47</t>
+        </is>
+      </c>
+      <c r="B269" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/0F/rBUtImIxPxOAVU9bAAqNsBWS4v4464.pdf</t>
+        </is>
+      </c>
+      <c r="C269" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9eba5b6f4329488d94ada949d62014ce&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D269" s="0" t="inlineStr">
+        <is>
+          <t>混凝士</t>
+        </is>
+      </c>
+      <c r="E269" s="0" t="inlineStr">
+        <is>
+          <t>混凝土</t>
+        </is>
+      </c>
+      <c r="F269" s="0" t="inlineStr">
+        <is>
+          <t>通江河右岸平昌县通江河大桥至渭子溪段防洪堤工程环境影响报告表（公示本）.pdf.pdf</t>
+        </is>
+      </c>
+      <c r="G269" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/hjbh/13208611.html</t>
+        </is>
+      </c>
+      <c r="H269" s="0" t="inlineStr">
+        <is>
+          <t>关于2021年5月25日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 17:54</t>
+        </is>
+      </c>
+      <c r="B270" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/UploadFiles/1/2017/6/20170609075255545554.xls</t>
+        </is>
+      </c>
+      <c r="C270" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=80a8cdfdf6a44410aea3f041e2694fd2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D270" s="0" t="inlineStr">
+        <is>
+          <t>帐面</t>
+        </is>
+      </c>
+      <c r="E270" s="0" t="inlineStr">
+        <is>
+          <t>账面</t>
+        </is>
+      </c>
+      <c r="F270" s="0" t="inlineStr">
+        <is>
+          <t>附表 融资平台公司资产负债清理统计表</t>
+        </is>
+      </c>
+      <c r="G270" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zcwj/10470091.html</t>
+        </is>
+      </c>
+      <c r="H270" s="0" t="inlineStr">
+        <is>
+          <t>平昌县人民政府关于加强规范地方政府融资平台公司管理有关问题的通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 17:54</t>
+        </is>
+      </c>
+      <c r="B271" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/11/A6/rBUtImZW3m6AYpBrAB4jNlRk8qk466.pdf</t>
+        </is>
+      </c>
+      <c r="C271" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fb780442e8be4c1ea0ebb956a0223918&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D271" s="0" t="inlineStr">
+        <is>
+          <t>1月12月</t>
+        </is>
+      </c>
+      <c r="E271" s="0" t="inlineStr">
+        <is>
+          <t>疑似日期错误，建议修改</t>
+        </is>
+      </c>
+      <c r="F271" s="0" t="inlineStr">
+        <is>
+          <t>平安103井钻井工程--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G271" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13943997.html</t>
+        </is>
+      </c>
+      <c r="H271" s="0" t="inlineStr">
+        <is>
+          <t>关于2024年5月29日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 17:55</t>
+        </is>
+      </c>
+      <c r="B272" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/11/13/rBUtImWzYRWATTXYADyiyIEGwM0967.pdf</t>
+        </is>
+      </c>
+      <c r="C272" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fc75409b2ca84c4e93fc7a9c6696e4a1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D272" s="0" t="inlineStr">
+        <is>
+          <t>1月12月</t>
+        </is>
+      </c>
+      <c r="E272" s="0" t="inlineStr">
+        <is>
+          <t>疑似日期错误，建议修改</t>
+        </is>
+      </c>
+      <c r="F272" s="0" t="inlineStr">
+        <is>
+          <t>镇巴（川陕界）至广安高速公路通江至广安段 C4 合同段荔枝隧道湿喷站--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G272" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13913267.html</t>
+        </is>
+      </c>
+      <c r="H272" s="0" t="inlineStr">
+        <is>
+          <t>关于2023年12月19日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 17:56</t>
+        </is>
+      </c>
+      <c r="B273" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/58/rBUtImSvyCOAPb8PAACn2gLye4w76.docx</t>
+        </is>
+      </c>
+      <c r="C273" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5b1987e382f545b9a2c6d6a7fc7347ef&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D273" s="0" t="inlineStr">
+        <is>
+          <t>“七五普法”</t>
+        </is>
+      </c>
+      <c r="E273" s="0" t="inlineStr">
+        <is>
+          <t>“七五”普法</t>
+        </is>
+      </c>
+      <c r="F273" s="0" t="inlineStr">
+        <is>
+          <t>平昌县司法局2019年度部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G273" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13229001.html</t>
+        </is>
+      </c>
+      <c r="H273" s="0" t="inlineStr">
+        <is>
+          <t>平昌县司法局2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 17:57</t>
+        </is>
+      </c>
+      <c r="B274" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/11/13/rBUtImWzYeWAWI89ABrdehplVPs031.pdf</t>
+        </is>
+      </c>
+      <c r="C274" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=13f37c7405e24f9b8beda22baf8f590d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D274" s="0" t="inlineStr">
+        <is>
+          <t>1月12月</t>
+        </is>
+      </c>
+      <c r="E274" s="0" t="inlineStr">
+        <is>
+          <t>疑似日期错误，建议修改</t>
+        </is>
+      </c>
+      <c r="F274" s="0" t="inlineStr">
+        <is>
+          <t>镇巴（川陕界）至广安高速公路通江至广安段 C5 合同段 3#湿喷站项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G274" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13913948.html</t>
+        </is>
+      </c>
+      <c r="H274" s="0" t="inlineStr">
+        <is>
+          <t>关于2023年12月21日已受理建设项目环评文件公告(四川嘉钒建筑工程有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 17:58</t>
+        </is>
+      </c>
+      <c r="B275" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/10/D7/rBUtImWA8u2ACa3QABszOPWQM3U759.pdf</t>
+        </is>
+      </c>
+      <c r="C275" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=dbe6a31c6921408f904376b8c958b4ec&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D275" s="0" t="inlineStr">
+        <is>
+          <t>1月12月</t>
+        </is>
+      </c>
+      <c r="E275" s="0" t="inlineStr">
+        <is>
+          <t>疑似日期错误，建议修改</t>
+        </is>
+      </c>
+      <c r="F275" s="0" t="inlineStr">
+        <is>
+          <t>镇巴（川陕界）至广安高速公路通江至广安段 C5 合同段 3#拌合站项目-公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G275" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13913256.html</t>
+        </is>
+      </c>
+      <c r="H275" s="0" t="inlineStr">
+        <is>
+          <t>关于2023年12月18日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 18:00</t>
+        </is>
+      </c>
+      <c r="B276" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/13/27/rBUtImcbUY-ARTDeADnsI3X-OnI609.pdf</t>
+        </is>
+      </c>
+      <c r="C276" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2e8a99d068df437b80ed172095b05681&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D276" s="0" t="inlineStr">
+        <is>
+          <t>晚上22:30</t>
+        </is>
+      </c>
+      <c r="E276" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F276" s="0" t="inlineStr">
+        <is>
+          <t>平昌县餐厨垃圾收运处置项目（一期）--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G276" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13968036.html</t>
+        </is>
+      </c>
+      <c r="H276" s="0" t="inlineStr">
+        <is>
+          <t>关于2024年10月25日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 18:00</t>
+        </is>
+      </c>
+      <c r="B277" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/64/rBUtImekZrmAN-zEACDfSuA9uTM491.pdf</t>
+        </is>
+      </c>
+      <c r="C277" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=15c384c1ece94c0a8784e55e34b8026a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D277" s="0" t="inlineStr">
+        <is>
+          <t>1月12月</t>
+        </is>
+      </c>
+      <c r="E277" s="0" t="inlineStr">
+        <is>
+          <t>疑似日期错误，建议修改</t>
+        </is>
+      </c>
+      <c r="F277" s="0" t="inlineStr">
+        <is>
+          <t>平安103井钻井工程--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G277" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13943999.html</t>
+        </is>
+      </c>
+      <c r="H277" s="0" t="inlineStr">
+        <is>
+          <t>关于2024年5月29日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 18:03</t>
+        </is>
+      </c>
+      <c r="B278" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0B/9C/rBUtImOMWVyAA1qhAALUR0qViqc928.doc</t>
+        </is>
+      </c>
+      <c r="C278" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5da5006abef74e1792c1084d729ebbcc&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D278" s="0" t="inlineStr">
+        <is>
+          <t>帐务</t>
+        </is>
+      </c>
+      <c r="E278" s="0" t="inlineStr">
+        <is>
+          <t>账务</t>
+        </is>
+      </c>
+      <c r="F278" s="0" t="inlineStr">
+        <is>
+          <t>平昌县大寨镇2019年度部门决算公开</t>
+        </is>
+      </c>
+      <c r="G278" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13228791.html</t>
+        </is>
+      </c>
+      <c r="H278" s="0" t="inlineStr">
+        <is>
+          <t>平昌县大寨镇2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 18:04</t>
+        </is>
+      </c>
+      <c r="B279" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0B/9C/rBUtImOMXiqAU30cAALUR0qViqc629.doc</t>
+        </is>
+      </c>
+      <c r="C279" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=18d3817dcb934a3b8096e120daed183d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D279" s="0" t="inlineStr">
+        <is>
+          <t>帐务</t>
+        </is>
+      </c>
+      <c r="E279" s="0" t="inlineStr">
+        <is>
+          <t>账务</t>
+        </is>
+      </c>
+      <c r="F279" s="0" t="inlineStr">
+        <is>
+          <t>2019年度平昌县大寨镇部门决算公开编制说明.doc</t>
+        </is>
+      </c>
+      <c r="G279" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13228791.html</t>
+        </is>
+      </c>
+      <c r="H279" s="0" t="inlineStr">
+        <is>
+          <t>平昌县大寨镇2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 18:05</t>
+        </is>
+      </c>
+      <c r="B280" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/0C/rBUtImIv5baAbShMAACZiGaR1JE05.docx</t>
+        </is>
+      </c>
+      <c r="C280" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a6f641dccfb34b40886d3d8547fc24e7&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D280" s="0" t="inlineStr">
+        <is>
+          <t>“七五普法”</t>
+        </is>
+      </c>
+      <c r="E280" s="0" t="inlineStr">
+        <is>
+          <t>“七五”普法</t>
+        </is>
+      </c>
+      <c r="F280" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县司法局2018年部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G280" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/12823651.html</t>
+        </is>
+      </c>
+      <c r="H280" s="0" t="inlineStr">
+        <is>
+          <t>平昌县司法局2018年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-28 18:05</t>
+        </is>
+      </c>
+      <c r="B281" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0B/9C/rBUtImOMWU6AOMSrAALUR0qViqc182.doc</t>
+        </is>
+      </c>
+      <c r="C281" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c202fdc8f63f482fa6d9da58be52e4ee&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D281" s="0" t="inlineStr">
+        <is>
+          <t>帐务</t>
+        </is>
+      </c>
+      <c r="E281" s="0" t="inlineStr">
+        <is>
+          <t>账务</t>
+        </is>
+      </c>
+      <c r="F281" s="0" t="inlineStr">
+        <is>
+          <t>平昌县大寨镇2019年度部门决算公开</t>
+        </is>
+      </c>
+      <c r="G281" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/12901761.html</t>
+        </is>
+      </c>
+      <c r="H281" s="0" t="inlineStr">
+        <is>
+          <t>平昌县大寨镇2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 10:29</t>
+        </is>
+      </c>
+      <c r="B282" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/oldfiles/pcx/UploadFiles/1/2017/6/20170609075157405740.doc</t>
+        </is>
+      </c>
+      <c r="C282" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=dc194e3a8ad9405386a1b1d1ceb5a581&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D282" s="0" t="inlineStr">
+        <is>
+          <t>帐面</t>
+        </is>
+      </c>
+      <c r="E282" s="0" t="inlineStr">
+        <is>
+          <t>账面</t>
+        </is>
+      </c>
+      <c r="F282" s="0" t="inlineStr">
+        <is>
+          <t>附件：平昌县融资平台公司清理实施方案</t>
+        </is>
+      </c>
+      <c r="G282" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zcwj/10470091.html</t>
+        </is>
+      </c>
+      <c r="H282" s="0" t="inlineStr">
+        <is>
+          <t>平昌县人民政府关于加强规范地方政府融资平台公司管理有关问题的通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-03-31 10:29</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/10/D7/rBUtImWA9gmAOfPGAB4zYnxsHuc354.pdf</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=064c29dcb985415099576da8143256a3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>1月12月</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>疑似日期错误，建议修改</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>镇巴（川陕界）至广安高速公路通江至广安段C4 合同段江口隧道湿喷站-公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13913269.html</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>关于2023年12月19日已受理建设项目环评文件公告</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1223,7 +1223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H283"/>
+  <dimension ref="A1:H288"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
       <selection activeCell="B159" sqref="B159"/>
@@ -12545,44 +12545,254 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
+      <c r="A283" s="0" t="inlineStr">
         <is>
           <t>2025-03-31 10:29</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="B283" s="0" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/group3/M00/10/D7/rBUtImWA9gmAOfPGAB4zYnxsHuc354.pdf</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
+      <c r="C283" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=064c29dcb985415099576da8143256a3&amp;type=0</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr">
+      <c r="D283" s="0" t="inlineStr">
         <is>
           <t>1月12月</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr">
+      <c r="E283" s="0" t="inlineStr">
         <is>
           <t>疑似日期错误，建议修改</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
+      <c r="F283" s="0" t="inlineStr">
         <is>
           <t>镇巴（川陕界）至广安高速公路通江至广安段C4 合同段江口隧道湿喷站-公示本.pdf</t>
         </is>
       </c>
-      <c r="G283" t="inlineStr">
+      <c r="G283" s="0" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/public/6601841/13913269.html</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
+      <c r="H283" s="0" t="inlineStr">
         <is>
           <t>关于2023年12月19日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-02 17:18</t>
+        </is>
+      </c>
+      <c r="B284" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/E6/rBUtImUhAV-AWGGXAC8V976PGUI773.pdf</t>
+        </is>
+      </c>
+      <c r="C284" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0245404bc17441fd893e1f28b742e50d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D284" s="0" t="inlineStr">
+        <is>
+          <t>国士空间</t>
+        </is>
+      </c>
+      <c r="E284" s="0" t="inlineStr">
+        <is>
+          <t>国土空间</t>
+        </is>
+      </c>
+      <c r="F284" s="0" t="inlineStr">
+        <is>
+          <t>平安3井钻井工程--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G284" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13893973.html</t>
+        </is>
+      </c>
+      <c r="H284" s="0" t="inlineStr">
+        <is>
+          <t>关于2023年10月7日已受理建设项目环评文件公告(大庆油田有限责任公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-03 14:31</t>
+        </is>
+      </c>
+      <c r="B285" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/07/A6/rBUtImHaoPqAeQCWAAI18HNAOO4495.pdf</t>
+        </is>
+      </c>
+      <c r="C285" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8503b427e2384f088efedc91da5a1ac7&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D285" s="0" t="inlineStr">
+        <is>
+          <t>针炙</t>
+        </is>
+      </c>
+      <c r="E285" s="0" t="inlineStr">
+        <is>
+          <t>针灸</t>
+        </is>
+      </c>
+      <c r="F285" s="0" t="inlineStr">
+        <is>
+          <t>关于平昌县2021年下半年公开考试招聘卫生事业单位专业技术工作人员查分后公共科目笔试成绩（含政策性加分）岗位排名暨进入专业科目面试入围资格审查人员名单等相关事宜的公告</t>
+        </is>
+      </c>
+      <c r="G285" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602001/13804907.html</t>
+        </is>
+      </c>
+      <c r="H285" s="0" t="inlineStr">
+        <is>
+          <t>关于平昌县2021年下半年公开考试招聘卫生事业单位专业技术工作人员查分后公共科目笔试成绩（含政策性加分...</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-03 14:31</t>
+        </is>
+      </c>
+      <c r="B286" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/07/CB/rBUtImHyTRyAAl0hAAI0rhJ178A292.pdf</t>
+        </is>
+      </c>
+      <c r="C286" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2b4ffceb45f947c98a62972b3f6a7d66&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D286" s="0" t="inlineStr">
+        <is>
+          <t>针炙</t>
+        </is>
+      </c>
+      <c r="E286" s="0" t="inlineStr">
+        <is>
+          <t>针灸</t>
+        </is>
+      </c>
+      <c r="F286" s="0" t="inlineStr">
+        <is>
+          <t>关于公布平昌县2021年下半年公开考试招聘卫生事业单位专业技术工作人员考试总成绩、岗位排名及进入体检人员名单的公告</t>
+        </is>
+      </c>
+      <c r="G286" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602001/13804904.html</t>
+        </is>
+      </c>
+      <c r="H286" s="0" t="inlineStr">
+        <is>
+          <t>关于公布平昌县2021年下半年公开考试招聘卫生事业单位专业技术工作人员考试总成绩、岗位排名及进入体检人...</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-03 14:31</t>
+        </is>
+      </c>
+      <c r="B287" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/17/rBUtImI4GRSAN1DrAAIEaATiT_8238.pdf</t>
+        </is>
+      </c>
+      <c r="C287" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=905316a41d314c3591a91d22a1ad6d23&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D287" s="0" t="inlineStr">
+        <is>
+          <t>针炙</t>
+        </is>
+      </c>
+      <c r="E287" s="0" t="inlineStr">
+        <is>
+          <t>针灸</t>
+        </is>
+      </c>
+      <c r="F287" s="0" t="inlineStr">
+        <is>
+          <t>关于平昌县2021年下半年公开招聘卫生事业单位专业技术工作人员拟聘人员的公示</t>
+        </is>
+      </c>
+      <c r="G287" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/rsxx/13633451.html</t>
+        </is>
+      </c>
+      <c r="H287" s="0" t="inlineStr">
+        <is>
+          <t>关于平昌县2021年下半年公开招聘卫生事业单位专业技术工作人员拟聘人员的公示</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2025-04-03 14:31</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/07/A6/rBUtImHaolOAFp50AAIzpsWy4js576.pdf</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=675be85c769444bfb29b5aee711207f2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>针炙</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>针灸</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>关于平昌县2021年下半年公开考试招聘卫生事业单位专业技术工作人员查分后公共科目笔试成绩（含政策性加分）岗位排名暨进入专业科目面试入围资格审查人员名单等相关事宜的公告</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602001/13804907.html</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>关于平昌县2021年下半年公开考试招聘卫生事业单位专业技术工作人员查分后公共科目笔试成绩（含政策性加分...</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1223,7 +1223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H288"/>
+  <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
       <selection activeCell="B159" sqref="B159"/>
@@ -12755,44 +12755,716 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
+      <c r="A288" s="0" t="inlineStr">
         <is>
           <t>2025-04-03 14:31</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr">
+      <c r="B288" s="0" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/group3/M00/07/A6/rBUtImHaolOAFp50AAIzpsWy4js576.pdf</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
+      <c r="C288" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=675be85c769444bfb29b5aee711207f2&amp;type=0</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr">
+      <c r="D288" s="0" t="inlineStr">
         <is>
           <t>针炙</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr">
+      <c r="E288" s="0" t="inlineStr">
         <is>
           <t>针灸</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
+      <c r="F288" s="0" t="inlineStr">
         <is>
           <t>关于平昌县2021年下半年公开考试招聘卫生事业单位专业技术工作人员查分后公共科目笔试成绩（含政策性加分）岗位排名暨进入专业科目面试入围资格审查人员名单等相关事宜的公告</t>
         </is>
       </c>
-      <c r="G288" t="inlineStr">
+      <c r="G288" s="0" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/public/6602001/13804907.html</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
+      <c r="H288" s="0" t="inlineStr">
         <is>
           <t>关于平昌县2021年下半年公开考试招聘卫生事业单位专业技术工作人员查分后公共科目笔试成绩（含政策性加分...</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-18 10:02</t>
+        </is>
+      </c>
+      <c r="B289" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/FD/rBUtImLCOE-ACmH0AADF69H66dc55.docx</t>
+        </is>
+      </c>
+      <c r="C289" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=dc06e261b7f14ee0bf15f2175a30cb24&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D289" s="0" t="inlineStr">
+        <is>
+          <t>抓住关键少数</t>
+        </is>
+      </c>
+      <c r="E289" s="0" t="inlineStr">
+        <is>
+          <t>抓住“关键少数”</t>
+        </is>
+      </c>
+      <c r="F289" s="0" t="inlineStr">
+        <is>
+          <t>平昌县纪委2018年部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G289" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/12823521.html</t>
+        </is>
+      </c>
+      <c r="H289" s="0" t="inlineStr">
+        <is>
+          <t>平昌县纪律检查委员会2018年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-18 15:26</t>
+        </is>
+      </c>
+      <c r="B290" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/11/rBUtImIxibiANVSEAAE1Rnt3DRg20.docx</t>
+        </is>
+      </c>
+      <c r="C290" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0171c3b214e94f7d8118f44eb93c9d03&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D290" s="0" t="inlineStr">
+        <is>
+          <t>社会和保障就业</t>
+        </is>
+      </c>
+      <c r="E290" s="0" t="inlineStr">
+        <is>
+          <t>社会保障和就业</t>
+        </is>
+      </c>
+      <c r="F290" s="0" t="inlineStr">
+        <is>
+          <t>平昌县林业局2019年度部门决算公开编制说明.docx.docx</t>
+        </is>
+      </c>
+      <c r="G290" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602341/12988791.html</t>
+        </is>
+      </c>
+      <c r="H290" s="0" t="inlineStr">
+        <is>
+          <t>平昌县林业局2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-22 09:13</t>
+        </is>
+      </c>
+      <c r="B291" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/5F/rBUtImS14xqAEZeOAABAYgmoXq020.xlsx</t>
+        </is>
+      </c>
+      <c r="C291" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=7ba8e15bffb24dffb06ea8ac7a8c0cb2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D291" s="0" t="inlineStr">
+        <is>
+          <t>中华人民共和国政府信息公开条例》</t>
+        </is>
+      </c>
+      <c r="E291" s="0" t="inlineStr">
+        <is>
+          <t>《中华人民共和国政府信息公开条例》</t>
+        </is>
+      </c>
+      <c r="F291" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县五木镇政府信息主动公开基本目录.xlsx</t>
+        </is>
+      </c>
+      <c r="G291" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12617841.html</t>
+        </is>
+      </c>
+      <c r="H291" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县五木镇政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-24 15:10</t>
+        </is>
+      </c>
+      <c r="B292" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/64/rBUtImekVsGABHxgACB4yp4VTL4486.pdf</t>
+        </is>
+      </c>
+      <c r="C292" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=79733ccd3d67491280ae8f6d0420797a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D292" s="0" t="inlineStr">
+        <is>
+          <t>粉粹</t>
+        </is>
+      </c>
+      <c r="E292" s="0" t="inlineStr">
+        <is>
+          <t>粉碎</t>
+        </is>
+      </c>
+      <c r="F292" s="0" t="inlineStr">
+        <is>
+          <t>有机肥料技改项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G292" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851381.html</t>
+        </is>
+      </c>
+      <c r="H292" s="0" t="inlineStr">
+        <is>
+          <t>关于2019年6月19日已受理建设项目环评文件公告(有机肥料技改项目)</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-24 15:30</t>
+        </is>
+      </c>
+      <c r="B293" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/B0/rBUtImfY05iAYwg_ABfNmCNZ1no283.pdf</t>
+        </is>
+      </c>
+      <c r="C293" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3063c91c7155498aa44805c71ce2a8c5&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D293" s="0" t="inlineStr">
+        <is>
+          <t>混凝土浇铸</t>
+        </is>
+      </c>
+      <c r="E293" s="0" t="inlineStr">
+        <is>
+          <t>混凝土浇筑</t>
+        </is>
+      </c>
+      <c r="F293" s="0" t="inlineStr">
+        <is>
+          <t>关于2018年10月11日已受理建设项目环评文件公示(平昌县俱兴砖厂迁建项目)</t>
+        </is>
+      </c>
+      <c r="G293" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851441.html</t>
+        </is>
+      </c>
+      <c r="H293" s="0" t="inlineStr">
+        <is>
+          <t>关于2018年10月11日已受理建设项目环评文件公示(平昌县俱兴砖厂迁建项目)</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-28 14:27</t>
+        </is>
+      </c>
+      <c r="B294" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/64/rBUtImekVsGABHxgACB4yp4VTL4486.pdf</t>
+        </is>
+      </c>
+      <c r="C294" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=79733ccd3d67491280ae8f6d0420797a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D294" s="0" t="inlineStr">
+        <is>
+          <t>粉粹</t>
+        </is>
+      </c>
+      <c r="E294" s="0" t="inlineStr">
+        <is>
+          <t>粉碎</t>
+        </is>
+      </c>
+      <c r="F294" s="0" t="inlineStr">
+        <is>
+          <t>有机肥料技改项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G294" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851381.html</t>
+        </is>
+      </c>
+      <c r="H294" s="0" t="inlineStr">
+        <is>
+          <t>关于2019年6月19日已受理建设项目环评文件公告(有机肥料技改项目)</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-28 14:31</t>
+        </is>
+      </c>
+      <c r="B295" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/12/70/rBUtImb2DMaAGIJqAAGn1E--QX022.xlsx</t>
+        </is>
+      </c>
+      <c r="C295" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d69de281f45242ae8561aeef6f468ecc&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D295" s="0" t="inlineStr">
+        <is>
+          <t>辩认</t>
+        </is>
+      </c>
+      <c r="E295" s="0" t="inlineStr">
+        <is>
+          <t>辨认</t>
+        </is>
+      </c>
+      <c r="F295" s="0" t="inlineStr">
+        <is>
+          <t>附件：第三批巴中市行政处罚五张清单（试行）.xlsx</t>
+        </is>
+      </c>
+      <c r="G295" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601961/13964433.html</t>
+        </is>
+      </c>
+      <c r="H295" s="0" t="inlineStr">
+        <is>
+          <t>中共巴中市委全面依法治市委员会办公室关于印发第三批《巴中市行政处罚五张清单（试行）》的通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-28 14:47</t>
+        </is>
+      </c>
+      <c r="B296" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/B0/rBUtImfY05iAYwg_ABfNmCNZ1no283.pdf</t>
+        </is>
+      </c>
+      <c r="C296" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3063c91c7155498aa44805c71ce2a8c5&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D296" s="0" t="inlineStr">
+        <is>
+          <t>混凝土浇铸</t>
+        </is>
+      </c>
+      <c r="E296" s="0" t="inlineStr">
+        <is>
+          <t>混凝土浇筑</t>
+        </is>
+      </c>
+      <c r="F296" s="0" t="inlineStr">
+        <is>
+          <t>关于2018年10月11日已受理建设项目环评文件公示(平昌县俱兴砖厂迁建项目)</t>
+        </is>
+      </c>
+      <c r="G296" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851441.html</t>
+        </is>
+      </c>
+      <c r="H296" s="0" t="inlineStr">
+        <is>
+          <t>关于2018年10月11日已受理建设项目环评文件公示(平昌县俱兴砖厂迁建项目)</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-28 14:48</t>
+        </is>
+      </c>
+      <c r="B297" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/5F/rBUtImS14xqAEZeOAABAYgmoXq020.xlsx</t>
+        </is>
+      </c>
+      <c r="C297" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=7ba8e15bffb24dffb06ea8ac7a8c0cb2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D297" s="0" t="inlineStr">
+        <is>
+          <t>中华人民共和国政府信息公开条例》</t>
+        </is>
+      </c>
+      <c r="E297" s="0" t="inlineStr">
+        <is>
+          <t>《中华人民共和国政府信息公开条例》</t>
+        </is>
+      </c>
+      <c r="F297" s="0" t="inlineStr">
+        <is>
+          <t>附件：巴中市平昌县五木镇政府信息主动公开基本目录.xlsx</t>
+        </is>
+      </c>
+      <c r="G297" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xzbsc/12617841.html</t>
+        </is>
+      </c>
+      <c r="H297" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县五木镇政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-28 14:48</t>
+        </is>
+      </c>
+      <c r="B298" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/11/rBUtImIxibiANVSEAAE1Rnt3DRg20.docx</t>
+        </is>
+      </c>
+      <c r="C298" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0171c3b214e94f7d8118f44eb93c9d03&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D298" s="0" t="inlineStr">
+        <is>
+          <t>社会和保障就业</t>
+        </is>
+      </c>
+      <c r="E298" s="0" t="inlineStr">
+        <is>
+          <t>社会保障和就业</t>
+        </is>
+      </c>
+      <c r="F298" s="0" t="inlineStr">
+        <is>
+          <t>平昌县林业局2019年度部门决算公开编制说明.docx.docx</t>
+        </is>
+      </c>
+      <c r="G298" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602341/12988791.html</t>
+        </is>
+      </c>
+      <c r="H298" s="0" t="inlineStr">
+        <is>
+          <t>平昌县林业局2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-28 14:48</t>
+        </is>
+      </c>
+      <c r="B299" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/FD/rBUtImLCOE-ACmH0AADF69H66dc55.docx</t>
+        </is>
+      </c>
+      <c r="C299" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=dc06e261b7f14ee0bf15f2175a30cb24&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D299" s="0" t="inlineStr">
+        <is>
+          <t>抓住关键少数</t>
+        </is>
+      </c>
+      <c r="E299" s="0" t="inlineStr">
+        <is>
+          <t>抓住“关键少数”</t>
+        </is>
+      </c>
+      <c r="F299" s="0" t="inlineStr">
+        <is>
+          <t>平昌县纪委2018年部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G299" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/12823521.html</t>
+        </is>
+      </c>
+      <c r="H299" s="0" t="inlineStr">
+        <is>
+          <t>平昌县纪律检查委员会2018年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-28 14:49</t>
+        </is>
+      </c>
+      <c r="B300" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/07/A6/rBUtImHaoPqAeQCWAAI18HNAOO4495.pdf</t>
+        </is>
+      </c>
+      <c r="C300" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8503b427e2384f088efedc91da5a1ac7&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D300" s="0" t="inlineStr">
+        <is>
+          <t>针炙</t>
+        </is>
+      </c>
+      <c r="E300" s="0" t="inlineStr">
+        <is>
+          <t>针灸</t>
+        </is>
+      </c>
+      <c r="F300" s="0" t="inlineStr">
+        <is>
+          <t>关于平昌县2021年下半年公开考试招聘卫生事业单位专业技术工作人员查分后公共科目笔试成绩（含政策性加分）岗位排名暨进入专业科目面试入围资格审查人员名单等相关事宜的公告</t>
+        </is>
+      </c>
+      <c r="G300" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602001/13804907.html</t>
+        </is>
+      </c>
+      <c r="H300" s="0" t="inlineStr">
+        <is>
+          <t>关于平昌县2021年下半年公开考试招聘卫生事业单位专业技术工作人员查分后公共科目笔试成绩（含政策性加分...</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-28 14:49</t>
+        </is>
+      </c>
+      <c r="B301" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/08/17/rBUtImI4GRSAN1DrAAIEaATiT_8238.pdf</t>
+        </is>
+      </c>
+      <c r="C301" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=905316a41d314c3591a91d22a1ad6d23&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D301" s="0" t="inlineStr">
+        <is>
+          <t>针炙</t>
+        </is>
+      </c>
+      <c r="E301" s="0" t="inlineStr">
+        <is>
+          <t>针灸</t>
+        </is>
+      </c>
+      <c r="F301" s="0" t="inlineStr">
+        <is>
+          <t>关于平昌县2021年下半年公开招聘卫生事业单位专业技术工作人员拟聘人员的公示</t>
+        </is>
+      </c>
+      <c r="G301" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/rsxx/13633451.html</t>
+        </is>
+      </c>
+      <c r="H301" s="0" t="inlineStr">
+        <is>
+          <t>关于平昌县2021年下半年公开招聘卫生事业单位专业技术工作人员拟聘人员的公示</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-28 14:49</t>
+        </is>
+      </c>
+      <c r="B302" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/07/CB/rBUtImHyTRyAAl0hAAI0rhJ178A292.pdf</t>
+        </is>
+      </c>
+      <c r="C302" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2b4ffceb45f947c98a62972b3f6a7d66&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D302" s="0" t="inlineStr">
+        <is>
+          <t>针炙</t>
+        </is>
+      </c>
+      <c r="E302" s="0" t="inlineStr">
+        <is>
+          <t>针灸</t>
+        </is>
+      </c>
+      <c r="F302" s="0" t="inlineStr">
+        <is>
+          <t>关于公布平昌县2021年下半年公开考试招聘卫生事业单位专业技术工作人员考试总成绩、岗位排名及进入体检人员名单的公告</t>
+        </is>
+      </c>
+      <c r="G302" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602001/13804904.html</t>
+        </is>
+      </c>
+      <c r="H302" s="0" t="inlineStr">
+        <is>
+          <t>关于公布平昌县2021年下半年公开考试招聘卫生事业单位专业技术工作人员考试总成绩、岗位排名及进入体检人...</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-28 14:49</t>
+        </is>
+      </c>
+      <c r="B303" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/07/A6/rBUtImHaolOAFp50AAIzpsWy4js576.pdf</t>
+        </is>
+      </c>
+      <c r="C303" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=675be85c769444bfb29b5aee711207f2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D303" s="0" t="inlineStr">
+        <is>
+          <t>针炙</t>
+        </is>
+      </c>
+      <c r="E303" s="0" t="inlineStr">
+        <is>
+          <t>针灸</t>
+        </is>
+      </c>
+      <c r="F303" s="0" t="inlineStr">
+        <is>
+          <t>关于平昌县2021年下半年公开考试招聘卫生事业单位专业技术工作人员查分后公共科目笔试成绩（含政策性加分）岗位排名暨进入专业科目面试入围资格审查人员名单等相关事宜的公告</t>
+        </is>
+      </c>
+      <c r="G303" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602001/13804907.html</t>
+        </is>
+      </c>
+      <c r="H303" s="0" t="inlineStr">
+        <is>
+          <t>关于平昌县2021年下半年公开考试招聘卫生事业单位专业技术工作人员查分后公共科目笔试成绩（含政策性加分...</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-04-28 14:49</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/E6/rBUtImUhAV-AWGGXAC8V976PGUI773.pdf</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0245404bc17441fd893e1f28b742e50d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>国士空间</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>国土空间</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>平安3井钻井工程--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13893973.html</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>关于2023年10月7日已受理建设项目环评文件公告(大庆油田有限责任公司)</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1223,7 +1223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H304"/>
+  <dimension ref="A1:H308"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
       <selection activeCell="B159" sqref="B159"/>
@@ -13427,44 +13427,192 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr">
+      <c r="A304" s="0" t="inlineStr">
         <is>
           <t>2025-04-28 14:49</t>
         </is>
       </c>
-      <c r="B304" t="inlineStr">
+      <c r="B304" s="0" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/group3/M00/0E/E6/rBUtImUhAV-AWGGXAC8V976PGUI773.pdf</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr">
+      <c r="C304" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0245404bc17441fd893e1f28b742e50d&amp;type=0</t>
         </is>
       </c>
-      <c r="D304" t="inlineStr">
+      <c r="D304" s="0" t="inlineStr">
         <is>
           <t>国士空间</t>
         </is>
       </c>
-      <c r="E304" t="inlineStr">
+      <c r="E304" s="0" t="inlineStr">
         <is>
           <t>国土空间</t>
         </is>
       </c>
-      <c r="F304" t="inlineStr">
+      <c r="F304" s="0" t="inlineStr">
         <is>
           <t>平安3井钻井工程--公示本.pdf</t>
         </is>
       </c>
-      <c r="G304" t="inlineStr">
+      <c r="G304" s="0" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/public/6602261/13893973.html</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
+      <c r="H304" s="0" t="inlineStr">
         <is>
           <t>关于2023年10月7日已受理建设项目环评文件公告(大庆油田有限责任公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B305" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/B0/rBUtImfY4yGATlslAB3q0CGddf0980.pdf</t>
+        </is>
+      </c>
+      <c r="C305" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f78e7552fc6f4409af50e1742ceebf58&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D305" s="0" t="inlineStr">
+        <is>
+          <t>生态环境保护部</t>
+        </is>
+      </c>
+      <c r="E305" s="0" t="inlineStr">
+        <is>
+          <t>生态环境部</t>
+        </is>
+      </c>
+      <c r="F305" s="0" t="inlineStr">
+        <is>
+          <t>平昌县云台镇友谊砖瓦厂技改项目 .pdf</t>
+        </is>
+      </c>
+      <c r="G305" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851420.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:35</t>
+        </is>
+      </c>
+      <c r="B306" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/B1/rBUtImfZIxSAd3WZACejlMeSBXI003.pdf</t>
+        </is>
+      </c>
+      <c r="C306" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3c263347126e4d5aa29df23efa82f16e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D306" s="0" t="inlineStr">
+        <is>
+          <t>化学危险品安全管理条例</t>
+        </is>
+      </c>
+      <c r="E306" s="0" t="inlineStr">
+        <is>
+          <t>危险化学品安全管理条例</t>
+        </is>
+      </c>
+      <c r="F306" s="0" t="inlineStr">
+        <is>
+          <t>巴中巨能石化有限责任公司平昌加油加气站加气部分（CNG）建设项目.pdf</t>
+        </is>
+      </c>
+      <c r="G306" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851306.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:35</t>
+        </is>
+      </c>
+      <c r="B307" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/10/EE/rBUtImWTqkyAea2NABzZC6MM_Qg049.pdf</t>
+        </is>
+      </c>
+      <c r="C307" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=bd1619e0bce342c2bf786f97522449a7&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D307" s="0" t="inlineStr">
+        <is>
+          <t>》（试行）</t>
+        </is>
+      </c>
+      <c r="E307" s="0" t="inlineStr">
+        <is>
+          <t>（试行）》</t>
+        </is>
+      </c>
+      <c r="F307" s="0" t="inlineStr">
+        <is>
+          <t>镇巴（川陕界）至广安高速公路通江至广安段C5合同段1#预制梁场.pdf</t>
+        </is>
+      </c>
+      <c r="G307" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13915747.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:53</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/B0/rBUtImfY1xGAX6OrAK9kIWyYUbA393.pdf</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=09354557d2fe4dc59a6aef4acc53e536&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>涉及到</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>语义重复：涉及指“关联到或牵涉到”；及指“至或到达”。</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>平昌县元山镇污水处理厂建设项目.pdf</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851387.html</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1223,7 +1223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H308"/>
+  <dimension ref="A1:H314"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
       <selection activeCell="B159" sqref="B159"/>
@@ -13580,39 +13580,261 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
+      <c r="A308" s="0" t="inlineStr">
         <is>
           <t>2025-04-30 08:53</t>
         </is>
       </c>
-      <c r="B308" t="inlineStr">
+      <c r="B308" s="0" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/group3/M00/15/B0/rBUtImfY1xGAX6OrAK9kIWyYUbA393.pdf</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr">
+      <c r="C308" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=09354557d2fe4dc59a6aef4acc53e536&amp;type=0</t>
         </is>
       </c>
-      <c r="D308" t="inlineStr">
+      <c r="D308" s="0" t="inlineStr">
         <is>
           <t>涉及到</t>
         </is>
       </c>
-      <c r="E308" t="inlineStr">
+      <c r="E308" s="0" t="inlineStr">
         <is>
           <t>语义重复：涉及指“关联到或牵涉到”；及指“至或到达”。</t>
         </is>
       </c>
-      <c r="F308" t="inlineStr">
+      <c r="F308" s="0" t="inlineStr">
         <is>
           <t>平昌县元山镇污水处理厂建设项目.pdf</t>
         </is>
       </c>
-      <c r="G308" t="inlineStr">
+      <c r="G308" s="0" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/public/6602261/13851387.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-04 10:02</t>
+        </is>
+      </c>
+      <c r="B309" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/A1/rBUtImfKVgeAPGBdAFtyWxgs90Y420.pdf</t>
+        </is>
+      </c>
+      <c r="C309" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3d1600f478f24f95a3dd58be4203a606&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D309" s="0" t="inlineStr">
+        <is>
+          <t>涉及到</t>
+        </is>
+      </c>
+      <c r="E309" s="0" t="inlineStr">
+        <is>
+          <t>语义重复：涉及指“关联到或牵涉到”；及指“至或到达”。</t>
+        </is>
+      </c>
+      <c r="F309" s="0" t="inlineStr">
+        <is>
+          <t>平安3井钻井工程--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G309" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13893974.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-04 10:02</t>
+        </is>
+      </c>
+      <c r="B310" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/A1/rBUtImfKVJuAbb5sAPLlwQV2WyA564.pdf</t>
+        </is>
+      </c>
+      <c r="C310" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d9e4cf60cd5643dbb63224e851ecb384&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D310" s="0" t="inlineStr">
+        <is>
+          <t>涉及到</t>
+        </is>
+      </c>
+      <c r="E310" s="0" t="inlineStr">
+        <is>
+          <t>语义重复：涉及指“关联到或牵涉到”；及指“至或到达”。</t>
+        </is>
+      </c>
+      <c r="F310" s="0" t="inlineStr">
+        <is>
+          <t>平昌县人民医院信义院区住院综合楼建设项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G310" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851438.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-04 10:02</t>
+        </is>
+      </c>
+      <c r="B311" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/A1/rBUtImfKUauASoTlAEG9W2XZg-w812.pdf</t>
+        </is>
+      </c>
+      <c r="C311" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9fc6999e2c7940419ab5496e885e48d4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D311" s="0" t="inlineStr">
+        <is>
+          <t>涉及到</t>
+        </is>
+      </c>
+      <c r="E311" s="0" t="inlineStr">
+        <is>
+          <t>语义重复：涉及指“关联到或牵涉到”；及指“至或到达”。</t>
+        </is>
+      </c>
+      <c r="F311" s="0" t="inlineStr">
+        <is>
+          <t>平昌经济开发区调味品制造项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G311" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851210.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-04 10:02</t>
+        </is>
+      </c>
+      <c r="B312" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/A1/rBUtImfKTwyAEMpcAKCo7qnQiLQ856.pdf</t>
+        </is>
+      </c>
+      <c r="C312" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d7532a92e4db4203a3e9a3e6deef3bb1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D312" s="0" t="inlineStr">
+        <is>
+          <t>珍惜物种</t>
+        </is>
+      </c>
+      <c r="E312" s="0" t="inlineStr">
+        <is>
+          <t>珍稀物种</t>
+        </is>
+      </c>
+      <c r="F312" s="0" t="inlineStr">
+        <is>
+          <t>腻子粉生产项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G312" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851360.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-04 10:02</t>
+        </is>
+      </c>
+      <c r="B313" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/A1/rBUtImfKVhSAXA95AEE4hVfyahA222.pdf</t>
+        </is>
+      </c>
+      <c r="C313" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=73d08f6ce6fc45428e7fd1709e9765ab&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D313" s="0" t="inlineStr">
+        <is>
+          <t>生态保护线</t>
+        </is>
+      </c>
+      <c r="E313" s="0" t="inlineStr">
+        <is>
+          <t>生态保护红线</t>
+        </is>
+      </c>
+      <c r="F313" s="0" t="inlineStr">
+        <is>
+          <t>平安 4 井钻井工程--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G313" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13893974.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-05-04 10:02</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/A1/rBUtImfKVFSAG7zwAEenU2_LPes589.pdf</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=cbe9bdac043d40419b7656032c04b15e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>生态保护线</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>生态保护红线</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>平安102井钻井工程--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13903129.html</t>
         </is>
       </c>
     </row>
